--- a/Arbeitsdokumente/TOP1000 Unternehmen.xlsx
+++ b/Arbeitsdokumente/TOP1000 Unternehmen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Literatur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67F5D2F5-0489-45F1-97F8-04115EE56391}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{92DEDF60-3653-47C3-8310-92207FFF8B07}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{F6644D53-76D2-4041-9EAA-A980037475CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="2" activeTab="5" xr2:uid="{F6644D53-76D2-4041-9EAA-A980037475CC}"/>
   </bookViews>
   <sheets>
     <sheet name="OÖ Kategorisiert" sheetId="2" r:id="rId1"/>
@@ -26,10 +26,10 @@
   <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="2" r:id="rId8"/>
-    <pivotCache cacheId="3" r:id="rId9"/>
-    <pivotCache cacheId="4" r:id="rId10"/>
-    <pivotCache cacheId="11" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="3" r:id="rId10"/>
+    <pivotCache cacheId="4" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="279">
   <si>
     <t>Oberösterreich</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Swietelsky Baugesellschaft m.b.H.</t>
   </si>
   <si>
-    <t>Bau-Industrie</t>
-  </si>
-  <si>
     <t>Austro Control</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>BWT AG</t>
   </si>
   <si>
-    <t xml:space="preserve">Energie-Industrie </t>
-  </si>
-  <si>
     <t>Energie AG OÖ</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>S&amp;T AG</t>
   </si>
   <si>
-    <t>IT.Sector</t>
-  </si>
-  <si>
     <t>Gartner Transport Holding GmbH</t>
   </si>
   <si>
@@ -414,9 +405,6 @@
     <t>SAP</t>
   </si>
   <si>
-    <t>It.Sector</t>
-  </si>
-  <si>
     <t>Porr</t>
   </si>
   <si>
@@ -717,9 +705,6 @@
     <t>Kotanyi</t>
   </si>
   <si>
-    <t>IT.Industrie</t>
-  </si>
-  <si>
     <t>Donau-Universität Krems</t>
   </si>
   <si>
@@ -750,9 +735,6 @@
     <t>Containex</t>
   </si>
   <si>
-    <t>BAu-Sector</t>
-  </si>
-  <si>
     <t>Trenkwalder</t>
   </si>
   <si>
@@ -889,6 +871,12 @@
   </si>
   <si>
     <t>NÖ Kategorisiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energie-Sector </t>
+  </si>
+  <si>
+    <t>IT-Sector</t>
   </si>
 </sst>
 </file>
@@ -2871,12 +2859,12 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
-        <item x="3"/>
-        <item x="4"/>
+        <item n="Bau-Sector" x="3"/>
+        <item n="Energie-Sector " x="4"/>
         <item x="7"/>
         <item x="2"/>
         <item x="0"/>
-        <item x="6"/>
+        <item n="IT-Sector" x="6"/>
         <item x="8"/>
         <item x="1"/>
         <item x="5"/>
@@ -3249,7 +3237,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{064B7672-44B0-443E-8FCD-A9428D5DAB12}" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{064B7672-44B0-443E-8FCD-A9428D5DAB12}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3297,7 +3285,7 @@
         <item x="4"/>
         <item x="3"/>
         <item x="0"/>
-        <item x="7"/>
+        <item n="IT-Sector" x="7"/>
         <item x="5"/>
         <item x="6"/>
         <item t="default"/>
@@ -3456,7 +3444,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E80AC31C-6408-4E6C-818E-8320DD6CD1C3}" name="PivotTable10" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E80AC31C-6408-4E6C-818E-8320DD6CD1C3}" name="PivotTable10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3492,7 +3480,7 @@
         <item x="6"/>
         <item x="3"/>
         <item x="0"/>
-        <item x="4"/>
+        <item n="IT-Sector" x="4"/>
         <item x="5"/>
         <item x="1"/>
         <item t="default"/>
@@ -3615,7 +3603,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CABC4D48-8C81-4CD4-B63F-A1D6ACED1B0D}" name="PivotTable12" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CABC4D48-8C81-4CD4-B63F-A1D6ACED1B0D}" name="PivotTable12" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3636,7 +3624,7 @@
         <item x="1"/>
         <item x="3"/>
         <item x="0"/>
-        <item x="2"/>
+        <item n="IT-Sector" x="2"/>
         <item x="4"/>
         <item t="default"/>
       </items>
@@ -3710,7 +3698,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{540D0E37-3697-4BC7-8252-94CE09AE0194}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{540D0E37-3697-4BC7-8252-94CE09AE0194}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B95" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3806,7 +3794,7 @@
         <item x="4"/>
         <item x="5"/>
         <item x="1"/>
-        <item x="2"/>
+        <item n="IT-Sector" x="2"/>
         <item x="7"/>
         <item x="0"/>
         <item x="8"/>
@@ -4414,7 +4402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1C627F-1CB1-45FF-8303-4BBFD02D2E63}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -4427,23 +4415,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
         <v>272</v>
       </c>
-      <c r="B3" t="s">
-        <v>278</v>
-      </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="B4" s="8">
         <v>12</v>
@@ -4454,7 +4442,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
@@ -4465,7 +4453,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
@@ -4476,7 +4464,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -4487,7 +4475,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -4498,7 +4486,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -4509,7 +4497,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -4520,7 +4508,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -4531,7 +4519,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -4542,7 +4530,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B13" s="8">
         <v>1</v>
@@ -4564,7 +4552,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
@@ -4575,7 +4563,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
@@ -4586,7 +4574,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="B17" s="8">
         <v>2</v>
@@ -4597,7 +4585,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
@@ -4608,7 +4596,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -4619,7 +4607,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
@@ -4630,7 +4618,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
@@ -4641,7 +4629,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="8">
         <v>32</v>
@@ -4652,7 +4640,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -4663,7 +4651,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
@@ -4674,7 +4662,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
@@ -4685,7 +4673,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="8">
         <v>1</v>
@@ -4696,7 +4684,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>
@@ -4707,7 +4695,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
@@ -4718,7 +4706,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
@@ -4729,7 +4717,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="8">
         <v>1</v>
@@ -4740,7 +4728,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B31" s="8">
         <v>1</v>
@@ -4751,7 +4739,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
@@ -4773,7 +4761,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B34" s="8">
         <v>1</v>
@@ -4784,7 +4772,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
@@ -4795,7 +4783,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
@@ -4806,7 +4794,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B37" s="8">
         <v>1</v>
@@ -4817,7 +4805,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B38" s="8">
         <v>1</v>
@@ -4828,7 +4816,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
@@ -4839,7 +4827,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="8">
         <v>1</v>
@@ -4850,7 +4838,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
@@ -4861,7 +4849,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B42" s="8">
         <v>1</v>
@@ -4872,7 +4860,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
@@ -4883,7 +4871,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B44" s="8">
         <v>1</v>
@@ -4894,7 +4882,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
@@ -4905,7 +4893,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B46" s="8">
         <v>1</v>
@@ -4916,7 +4904,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B47" s="8">
         <v>1</v>
@@ -4927,7 +4915,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B48" s="8">
         <v>1</v>
@@ -4938,7 +4926,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B49" s="8">
         <v>1</v>
@@ -4949,7 +4937,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50" s="8">
         <v>1</v>
@@ -4960,7 +4948,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51" s="8">
         <v>1</v>
@@ -4971,7 +4959,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B52" s="8">
         <v>1</v>
@@ -4982,7 +4970,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B53" s="8">
         <v>1</v>
@@ -4993,7 +4981,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B54" s="8">
         <v>1</v>
@@ -5015,7 +5003,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B56" s="8">
         <v>1</v>
@@ -5026,7 +5014,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B57" s="8">
         <v>1</v>
@@ -5037,7 +5025,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58" s="8">
         <v>1</v>
@@ -5048,7 +5036,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59" s="8">
         <v>1</v>
@@ -5059,7 +5047,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B60" s="8">
         <v>1</v>
@@ -5081,7 +5069,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B62" s="8">
         <v>1</v>
@@ -5092,7 +5080,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B63" s="8">
         <v>1</v>
@@ -5103,7 +5091,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64" s="8">
         <v>1</v>
@@ -5114,7 +5102,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B65" s="8">
         <v>1</v>
@@ -5125,7 +5113,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B66" s="8">
         <v>1</v>
@@ -5136,7 +5124,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B67" s="8">
         <v>1</v>
@@ -5147,7 +5135,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B68" s="8">
         <v>1</v>
@@ -5158,7 +5146,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B69" s="8">
         <v>1</v>
@@ -5169,7 +5157,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B70" s="8">
         <v>1</v>
@@ -5180,7 +5168,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B71" s="8">
         <v>1</v>
@@ -5191,7 +5179,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B72" s="8">
         <v>1</v>
@@ -5202,7 +5190,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B73" s="8">
         <v>1</v>
@@ -5213,7 +5201,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B74" s="8">
         <v>1</v>
@@ -5224,7 +5212,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B75" s="8">
         <v>1</v>
@@ -5235,7 +5223,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B76" s="8">
         <v>1</v>
@@ -5257,7 +5245,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" s="8">
         <v>1</v>
@@ -5268,7 +5256,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79" s="8">
         <v>1</v>
@@ -5279,7 +5267,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B80" s="8">
         <v>1</v>
@@ -5290,7 +5278,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B81" s="8">
         <v>1</v>
@@ -5301,7 +5289,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B82" s="8">
         <v>1</v>
@@ -5312,7 +5300,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B83" s="8">
         <v>1</v>
@@ -5323,7 +5311,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B84" s="8">
         <v>1</v>
@@ -5334,7 +5322,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B85" s="8">
         <v>1</v>
@@ -5345,7 +5333,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B86" s="8">
         <v>1</v>
@@ -5356,7 +5344,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B87" s="8">
         <v>1</v>
@@ -5367,7 +5355,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B88" s="8">
         <v>1</v>
@@ -5378,7 +5366,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B89" s="8">
         <v>1</v>
@@ -5389,7 +5377,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B90" s="8">
         <v>1</v>
@@ -5400,7 +5388,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B91" s="8">
         <v>1</v>
@@ -5411,7 +5399,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B92" s="8">
         <v>1</v>
@@ -5422,7 +5410,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B93" s="8">
         <v>1</v>
@@ -5433,7 +5421,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B94" s="8">
         <v>1</v>
@@ -5444,7 +5432,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B95" s="8">
         <v>1</v>
@@ -5455,7 +5443,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B96" s="8">
         <v>1</v>
@@ -5477,7 +5465,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B98" s="8">
         <v>1</v>
@@ -5488,7 +5476,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B99" s="8">
         <v>1</v>
@@ -5499,7 +5487,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="B100" s="8">
         <v>3</v>
@@ -5510,7 +5498,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B101" s="8">
         <v>1</v>
@@ -5521,7 +5509,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B102" s="8">
         <v>1</v>
@@ -5532,7 +5520,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B103" s="8">
         <v>1</v>
@@ -5543,7 +5531,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B104" s="8">
         <v>1</v>
@@ -5554,7 +5542,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B105" s="8">
         <v>1</v>
@@ -5587,7 +5575,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B108" s="8">
         <v>4</v>
@@ -5598,7 +5586,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B109" s="8">
         <v>1</v>
@@ -5609,7 +5597,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B110" s="8">
         <v>1</v>
@@ -5620,7 +5608,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B111" s="8">
         <v>1</v>
@@ -5631,7 +5619,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B112" s="8">
         <v>1</v>
@@ -5642,7 +5630,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B113" s="8">
         <v>100</v>
@@ -5661,7 +5649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB684659-985A-4CE6-9E12-7B6C459DA584}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -5673,20 +5661,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B4" s="8">
         <v>4340</v>
@@ -5694,7 +5682,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B5" s="8">
         <v>280</v>
@@ -5702,7 +5690,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B6" s="8">
         <v>2000</v>
@@ -5710,7 +5698,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B7" s="8">
         <v>1150</v>
@@ -5718,7 +5706,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B8" s="8">
         <v>660</v>
@@ -5726,7 +5714,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B9" s="8">
         <v>250</v>
@@ -5734,7 +5722,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B10" s="8">
         <v>2378</v>
@@ -5742,7 +5730,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B11" s="8">
         <v>2378</v>
@@ -5750,7 +5738,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B12" s="8">
         <v>3450</v>
@@ -5758,7 +5746,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B13" s="8">
         <v>250</v>
@@ -5766,7 +5754,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B14" s="8">
         <v>600</v>
@@ -5774,7 +5762,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B15" s="8">
         <v>2600</v>
@@ -5782,7 +5770,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="8">
         <v>49080</v>
@@ -5790,7 +5778,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B17" s="8">
         <v>500</v>
@@ -5798,7 +5786,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B18" s="8">
         <v>2700</v>
@@ -5806,7 +5794,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B19" s="8">
         <v>1900</v>
@@ -5814,7 +5802,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B20" s="8">
         <v>350</v>
@@ -5822,7 +5810,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B21" s="8">
         <v>41100</v>
@@ -5830,7 +5818,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B22" s="8">
         <v>950</v>
@@ -5838,7 +5826,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B23" s="8">
         <v>800</v>
@@ -5846,7 +5834,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B24" s="8">
         <v>780</v>
@@ -5862,7 +5850,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B26" s="8">
         <v>250</v>
@@ -5870,7 +5858,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B27" s="8">
         <v>2700</v>
@@ -5878,7 +5866,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B28" s="8">
         <v>230</v>
@@ -5886,7 +5874,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B29" s="8">
         <v>300</v>
@@ -5894,7 +5882,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B30" s="8">
         <v>900</v>
@@ -5902,7 +5890,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B31" s="8">
         <v>580</v>
@@ -5910,7 +5898,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B32" s="8">
         <v>680</v>
@@ -5918,7 +5906,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B33" s="8">
         <v>1100</v>
@@ -5926,7 +5914,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B34" s="8">
         <v>3250</v>
@@ -5934,7 +5922,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="B35" s="8">
         <v>210</v>
@@ -5942,7 +5930,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B36" s="8">
         <v>210</v>
@@ -5950,7 +5938,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B37" s="8">
         <v>22070</v>
@@ -5958,7 +5946,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B38" s="8">
         <v>20500</v>
@@ -5966,7 +5954,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B39" s="8">
         <v>1570</v>
@@ -5974,7 +5962,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="8">
         <v>3570</v>
@@ -5982,7 +5970,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B41" s="8">
         <v>580</v>
@@ -5990,7 +5978,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B42" s="8">
         <v>940</v>
@@ -5998,7 +5986,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B43" s="8">
         <v>500</v>
@@ -6006,7 +5994,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B44" s="8">
         <v>1550</v>
@@ -6014,7 +6002,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B45" s="8">
         <v>95088</v>
@@ -6029,7 +6017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA480559-02E8-4E7B-B5EB-1965C3B74435}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -6041,20 +6029,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B4" s="8">
         <v>2000</v>
@@ -6062,7 +6050,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B5" s="8">
         <v>2000</v>
@@ -6070,7 +6058,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="8">
         <v>350</v>
@@ -6078,7 +6066,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B7" s="8">
         <v>350</v>
@@ -6086,7 +6074,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="8">
         <v>53125</v>
@@ -6094,7 +6082,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B9" s="8">
         <v>6500</v>
@@ -6102,7 +6090,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B10" s="8">
         <v>4500</v>
@@ -6110,7 +6098,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B11" s="8">
         <v>1150</v>
@@ -6118,7 +6106,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B12" s="8">
         <v>600</v>
@@ -6126,7 +6114,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B13" s="8">
         <v>40000</v>
@@ -6134,7 +6122,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B14" s="8">
         <v>375</v>
@@ -6150,7 +6138,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B16" s="8">
         <v>700</v>
@@ -6158,7 +6146,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B17" s="8">
         <v>600</v>
@@ -6166,7 +6154,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B18" s="8">
         <v>355</v>
@@ -6174,7 +6162,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B19" s="8">
         <v>4600</v>
@@ -6182,7 +6170,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B20" s="8">
         <v>1500</v>
@@ -6190,7 +6178,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B21" s="8">
         <v>430</v>
@@ -6198,7 +6186,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B22" s="8">
         <v>1050</v>
@@ -6206,7 +6194,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B23" s="8">
         <v>200</v>
@@ -6214,7 +6202,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="B24" s="8">
         <v>510</v>
@@ -6222,7 +6210,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B25" s="8">
         <v>100</v>
@@ -6230,7 +6218,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B26" s="8">
         <v>410</v>
@@ -6238,7 +6226,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B27" s="8">
         <v>1850</v>
@@ -6246,7 +6234,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B28" s="8">
         <v>1200</v>
@@ -6254,7 +6242,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B29" s="8">
         <v>650</v>
@@ -6262,7 +6250,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="8">
         <v>3450</v>
@@ -6270,7 +6258,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B31" s="8">
         <v>650</v>
@@ -6278,7 +6266,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B32" s="8">
         <v>2800</v>
@@ -6286,7 +6274,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B33" s="8">
         <v>70720</v>
@@ -6301,7 +6289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E659077F-3972-483D-8493-88C3A90F6421}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -6313,20 +6301,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B4" s="8">
         <v>1408</v>
@@ -6334,7 +6322,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B5" s="8">
         <v>1408</v>
@@ -6342,7 +6330,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="8">
         <v>900</v>
@@ -6350,7 +6338,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B7" s="8">
         <v>900</v>
@@ -6366,7 +6354,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B9" s="8">
         <v>630</v>
@@ -6374,7 +6362,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B10" s="8">
         <v>430</v>
@@ -6382,7 +6370,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B11" s="8">
         <v>800</v>
@@ -6390,7 +6378,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="B12" s="8">
         <v>3810</v>
@@ -6398,7 +6386,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B13" s="8">
         <v>3500</v>
@@ -6406,7 +6394,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B14" s="8">
         <v>310</v>
@@ -6414,7 +6402,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8">
         <v>1500</v>
@@ -6422,7 +6410,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B16" s="8">
         <v>1500</v>
@@ -6430,7 +6418,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B17" s="8">
         <v>9478</v>
@@ -6445,8 +6433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C0734-0F5F-4F20-91B8-3402CA19BFC3}">
   <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6457,20 +6445,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B4" s="8">
         <v>15990</v>
@@ -6478,7 +6466,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B5" s="8">
         <v>2710</v>
@@ -6486,7 +6474,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B6" s="8">
         <v>1000</v>
@@ -6494,7 +6482,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B7" s="8">
         <v>2060</v>
@@ -6502,7 +6490,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B8" s="8">
         <v>10000</v>
@@ -6510,7 +6498,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B9" s="8">
         <v>220</v>
@@ -6518,7 +6506,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B10" s="8">
         <v>41034</v>
@@ -6526,7 +6514,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B11" s="8">
         <v>19000</v>
@@ -6534,7 +6522,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B12" s="8">
         <v>400</v>
@@ -6542,7 +6530,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B13" s="8">
         <v>2934</v>
@@ -6550,7 +6538,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B14" s="8">
         <v>2700</v>
@@ -6558,7 +6546,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B15" s="8">
         <v>16000</v>
@@ -6566,7 +6554,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" s="8">
         <v>27926</v>
@@ -6574,7 +6562,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B17" s="8">
         <v>400</v>
@@ -6582,7 +6570,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B18" s="8">
         <v>240</v>
@@ -6590,7 +6578,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B19" s="8">
         <v>241</v>
@@ -6598,7 +6586,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B20" s="8">
         <v>470</v>
@@ -6606,7 +6594,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B21" s="8">
         <v>15500</v>
@@ -6614,7 +6602,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B22" s="8">
         <v>1500</v>
@@ -6622,7 +6610,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B23" s="8">
         <v>5000</v>
@@ -6630,7 +6618,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B24" s="8">
         <v>270</v>
@@ -6638,7 +6626,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B25" s="8">
         <v>850</v>
@@ -6646,7 +6634,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B26" s="8">
         <v>1200</v>
@@ -6654,7 +6642,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B27" s="8">
         <v>700</v>
@@ -6662,7 +6650,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B28" s="8">
         <v>355</v>
@@ -6670,7 +6658,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B29" s="8">
         <v>1200</v>
@@ -6678,7 +6666,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="8">
         <v>9650</v>
@@ -6686,7 +6674,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B31" s="8">
         <v>2000</v>
@@ -6694,7 +6682,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B32" s="8">
         <v>550</v>
@@ -6702,7 +6690,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B33" s="8">
         <v>200</v>
@@ -6710,7 +6698,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B34" s="8">
         <v>1000</v>
@@ -6718,7 +6706,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B35" s="8">
         <v>1940</v>
@@ -6726,7 +6714,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B36" s="8">
         <v>850</v>
@@ -6734,7 +6722,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B37" s="8">
         <v>390</v>
@@ -6742,7 +6730,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B38" s="8">
         <v>430</v>
@@ -6750,7 +6738,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B39" s="8">
         <v>950</v>
@@ -6758,7 +6746,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B40" s="8">
         <v>350</v>
@@ -6766,7 +6754,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B41" s="8">
         <v>500</v>
@@ -6774,7 +6762,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B42" s="8">
         <v>250</v>
@@ -6782,7 +6770,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B43" s="8">
         <v>240</v>
@@ -6798,7 +6786,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B45" s="8">
         <v>400</v>
@@ -6806,7 +6794,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B46" s="8">
         <v>230</v>
@@ -6814,7 +6802,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B47" s="8">
         <v>1500</v>
@@ -6822,7 +6810,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B48" s="8">
         <v>1700</v>
@@ -6830,7 +6818,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B49" s="8">
         <v>3000</v>
@@ -6838,7 +6826,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B50" s="8">
         <v>1500</v>
@@ -6846,7 +6834,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B51" s="8">
         <v>760</v>
@@ -6854,7 +6842,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B52" s="8">
         <v>500</v>
@@ -6862,7 +6850,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B53" s="8">
         <v>5000</v>
@@ -6870,7 +6858,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B54" s="8">
         <v>2000</v>
@@ -6878,7 +6866,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B55" s="8">
         <v>1750</v>
@@ -6886,7 +6874,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B56" s="8">
         <v>400</v>
@@ -6894,7 +6882,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B57" s="8">
         <v>310</v>
@@ -6902,7 +6890,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B58" s="8">
         <v>288</v>
@@ -6910,7 +6898,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="B59" s="8">
         <v>8410</v>
@@ -6918,7 +6906,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B60" s="8">
         <v>430</v>
@@ -6926,7 +6914,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B61" s="8">
         <v>260</v>
@@ -6934,7 +6922,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B62" s="8">
         <v>1150</v>
@@ -6942,7 +6930,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B63" s="8">
         <v>500</v>
@@ -6950,7 +6938,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B64" s="8">
         <v>880</v>
@@ -6958,7 +6946,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B65" s="8">
         <v>1300</v>
@@ -6966,7 +6954,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B66" s="8">
         <v>350</v>
@@ -6974,7 +6962,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B67" s="8">
         <v>650</v>
@@ -6982,7 +6970,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B68" s="8">
         <v>890</v>
@@ -6990,7 +6978,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B69" s="8">
         <v>400</v>
@@ -6998,7 +6986,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B70" s="8">
         <v>600</v>
@@ -7006,7 +6994,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B71" s="8">
         <v>1000</v>
@@ -7014,7 +7002,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B72" s="8">
         <v>19996</v>
@@ -7022,7 +7010,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B73" s="8">
         <v>6796</v>
@@ -7030,7 +7018,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B74" s="8">
         <v>3500</v>
@@ -7038,7 +7026,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B75" s="8">
         <v>6150</v>
@@ -7046,7 +7034,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B76" s="8">
         <v>3550</v>
@@ -7054,7 +7042,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B77" s="8">
         <v>83876</v>
@@ -7062,7 +7050,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B78" s="8">
         <v>6000</v>
@@ -7070,7 +7058,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B79" s="8">
         <v>987</v>
@@ -7078,7 +7066,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B80" s="8">
         <v>5800</v>
@@ -7086,7 +7074,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B81" s="8">
         <v>1690</v>
@@ -7094,7 +7082,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B82" s="8">
         <v>430</v>
@@ -7102,7 +7090,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B83" s="8">
         <v>4400</v>
@@ -7110,7 +7098,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B84" s="8">
         <v>2000</v>
@@ -7118,7 +7106,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B85" s="8">
         <v>400</v>
@@ -7126,7 +7114,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B86" s="8">
         <v>29500</v>
@@ -7134,7 +7122,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B87" s="8">
         <v>500</v>
@@ -7142,7 +7130,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B88" s="8">
         <v>8260</v>
@@ -7150,7 +7138,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B89" s="8">
         <v>4809</v>
@@ -7158,7 +7146,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B90" s="8">
         <v>800</v>
@@ -7166,7 +7154,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B91" s="8">
         <v>9600</v>
@@ -7174,7 +7162,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B92" s="8">
         <v>8700</v>
@@ -7182,19 +7170,19 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B93" s="8"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B94" s="8"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B95" s="8">
         <v>226220</v>
@@ -7209,8 +7197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9AEC76-36DB-E04D-983F-053CE4B5DAE9}">
   <dimension ref="A1:K286"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B253" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7222,7 +7210,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -7283,7 +7271,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>10000</v>
@@ -7325,7 +7313,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D10" s="1">
         <v>8957</v>
@@ -7336,10 +7324,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
       </c>
       <c r="D11" s="1">
         <v>349</v>
@@ -7350,10 +7338,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="D12" s="1">
         <v>4362</v>
@@ -7364,7 +7352,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -7378,10 +7366,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D14" s="1">
         <v>5083</v>
@@ -7392,7 +7380,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -7406,7 +7394,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -7420,10 +7408,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D17" s="1">
         <v>4716</v>
@@ -7434,10 +7422,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1">
         <v>128</v>
@@ -7448,10 +7436,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1">
         <v>60</v>
@@ -7462,7 +7450,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -7476,10 +7464,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1">
         <v>2620</v>
@@ -7490,7 +7478,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -7504,10 +7492,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1">
         <v>1500</v>
@@ -7518,7 +7506,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -7532,7 +7520,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -7546,10 +7534,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
         <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
       </c>
       <c r="D26" s="1">
         <v>550</v>
@@ -7560,10 +7548,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1">
         <v>2250</v>
@@ -7574,7 +7562,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -7588,10 +7576,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
         <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
       </c>
       <c r="D29" s="1">
         <v>2800</v>
@@ -7602,7 +7590,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -7616,7 +7604,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -7630,7 +7618,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -7644,7 +7632,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -7658,10 +7646,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="D34" s="1">
         <v>3320</v>
@@ -7672,7 +7660,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -7686,7 +7674,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -7700,10 +7688,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D37" s="1">
         <v>2750</v>
@@ -7714,10 +7702,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D38" s="1">
         <v>2700</v>
@@ -7728,7 +7716,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -7742,10 +7730,10 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" s="1">
         <v>3800</v>
@@ -7756,10 +7744,10 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D41" s="1">
         <v>3700</v>
@@ -7770,10 +7758,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" s="1">
         <v>3600</v>
@@ -7787,7 +7775,7 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -7796,7 +7784,7 @@
         <v>3050</v>
       </c>
       <c r="K43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -7804,10 +7792,10 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" s="1">
         <v>1300</v>
@@ -7818,10 +7806,10 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1">
         <v>720</v>
@@ -7832,10 +7820,10 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D46" s="1">
         <v>2000</v>
@@ -7846,7 +7834,7 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
@@ -7860,10 +7848,10 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1">
         <v>350</v>
@@ -7874,7 +7862,7 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -7888,10 +7876,10 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1">
         <v>85</v>
@@ -7902,10 +7890,10 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D51" s="1">
         <v>850</v>
@@ -7916,10 +7904,10 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D52" s="1">
         <v>300</v>
@@ -7930,7 +7918,7 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
@@ -7944,10 +7932,10 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" s="1">
         <v>1450</v>
@@ -7958,7 +7946,7 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -7972,10 +7960,10 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56" s="1">
         <v>120</v>
@@ -7986,7 +7974,7 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -8000,10 +7988,10 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" s="1">
         <v>1350</v>
@@ -8014,10 +8002,10 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" s="1">
         <v>50</v>
@@ -8028,7 +8016,7 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -8042,7 +8030,7 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -8056,7 +8044,7 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -8070,10 +8058,10 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63" s="1">
         <v>530</v>
@@ -8084,10 +8072,10 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64" s="1">
         <v>1310</v>
@@ -8098,10 +8086,10 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D65" s="1">
         <v>120</v>
@@ -8112,7 +8100,7 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
@@ -8126,7 +8114,7 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -8140,10 +8128,10 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" s="1">
         <v>850</v>
@@ -8154,10 +8142,10 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D69" s="1">
         <v>1800</v>
@@ -8168,10 +8156,10 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" s="1">
         <v>1500</v>
@@ -8182,7 +8170,7 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -8196,7 +8184,7 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -8210,7 +8198,7 @@
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -8224,10 +8212,10 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74" s="1">
         <v>1000</v>
@@ -8238,10 +8226,10 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D75" s="1">
         <v>210</v>
@@ -8252,10 +8240,10 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76" s="1">
         <v>700</v>
@@ -8266,10 +8254,10 @@
         <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77" s="1">
         <v>260</v>
@@ -8280,7 +8268,7 @@
         <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -8294,10 +8282,10 @@
         <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79" s="1">
         <v>1000</v>
@@ -8308,7 +8296,7 @@
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
@@ -8322,7 +8310,7 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -8336,10 +8324,10 @@
         <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D82" s="1">
         <v>875</v>
@@ -8350,10 +8338,10 @@
         <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D83" s="1">
         <v>826</v>
@@ -8364,7 +8352,7 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -8378,7 +8366,7 @@
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
@@ -8392,10 +8380,10 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D86" s="1">
         <v>470</v>
@@ -8406,7 +8394,7 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
@@ -8420,10 +8408,10 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D88" s="1">
         <v>350</v>
@@ -8434,10 +8422,10 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D89" s="1">
         <v>2500</v>
@@ -8448,7 +8436,7 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -8462,10 +8450,10 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D91" s="1">
         <v>1133</v>
@@ -8476,7 +8464,7 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
@@ -8490,10 +8478,10 @@
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D93" s="1">
         <v>1550</v>
@@ -8504,7 +8492,7 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
@@ -8518,10 +8506,10 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D95" s="1">
         <v>350</v>
@@ -8532,10 +8520,10 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D96" s="1">
         <v>660</v>
@@ -8546,7 +8534,7 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
@@ -8560,10 +8548,10 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D98" s="1">
         <v>240</v>
@@ -8574,10 +8562,10 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C99" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D99" s="1">
         <v>1000</v>
@@ -8588,7 +8576,7 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
@@ -8602,10 +8590,10 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D101" s="1">
         <v>650</v>
@@ -8616,10 +8604,10 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D102" s="1">
         <v>50</v>
@@ -8630,7 +8618,7 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
@@ -8644,10 +8632,10 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D104" s="1">
         <v>350</v>
@@ -8660,10 +8648,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H107" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -8682,10 +8670,10 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D109" s="1">
         <v>987</v>
@@ -8696,10 +8684,10 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D110" s="1">
         <v>5800</v>
@@ -8710,7 +8698,7 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -8724,7 +8712,7 @@
         <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -8738,10 +8726,10 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D113" s="1">
         <v>880</v>
@@ -8752,10 +8740,10 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="D114" s="1">
         <v>400</v>
@@ -8766,10 +8754,10 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D115" s="1">
         <v>2060</v>
@@ -8780,10 +8768,10 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D116" s="1">
         <v>2710</v>
@@ -8794,10 +8782,10 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D117" s="1">
         <v>470</v>
@@ -8808,10 +8796,10 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118" s="1">
         <v>240</v>
@@ -8822,10 +8810,10 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D119" s="1">
         <v>350</v>
@@ -8836,10 +8824,10 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D120" s="1">
         <v>500</v>
@@ -8850,10 +8838,10 @@
         <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C121" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D121" s="1">
         <v>2700</v>
@@ -8864,7 +8852,7 @@
         <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C122" t="s">
         <v>11</v>
@@ -8878,10 +8866,10 @@
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D123" s="1">
         <v>850</v>
@@ -8892,10 +8880,10 @@
         <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D124" s="1">
         <v>10000</v>
@@ -8906,10 +8894,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D125" s="1">
         <v>390</v>
@@ -8920,10 +8908,10 @@
         <v>18</v>
       </c>
       <c r="B126" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C126" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D126" s="1">
         <v>2934</v>
@@ -8934,10 +8922,10 @@
         <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D127" s="1">
         <v>4809</v>
@@ -8948,10 +8936,10 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C128" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D128" s="1">
         <v>400</v>
@@ -8962,10 +8950,10 @@
         <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C129" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D129" s="1">
         <v>1000</v>
@@ -8976,10 +8964,10 @@
         <v>22</v>
       </c>
       <c r="B130" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C130" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="D130" s="1">
         <v>500</v>
@@ -8990,7 +8978,7 @@
         <v>23</v>
       </c>
       <c r="B131" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
@@ -9004,10 +8992,10 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C132" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D132" s="1">
         <v>240</v>
@@ -9018,10 +9006,10 @@
         <v>25</v>
       </c>
       <c r="B133" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D133" s="1">
         <v>1000</v>
@@ -9032,10 +9020,10 @@
         <v>26</v>
       </c>
       <c r="B134" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C134" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D134" s="1">
         <v>600</v>
@@ -9046,10 +9034,10 @@
         <v>27</v>
       </c>
       <c r="B135" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C135" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D135" s="1">
         <v>430</v>
@@ -9060,10 +9048,10 @@
         <v>28</v>
       </c>
       <c r="B136" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D136" s="1">
         <v>430</v>
@@ -9074,10 +9062,10 @@
         <v>29</v>
       </c>
       <c r="B137" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C137" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D137" s="1">
         <v>650</v>
@@ -9088,10 +9076,10 @@
         <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C138" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D138" s="1">
         <v>1200</v>
@@ -9102,7 +9090,7 @@
         <v>31</v>
       </c>
       <c r="B139" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C139" t="s">
         <v>11</v>
@@ -9116,10 +9104,10 @@
         <v>32</v>
       </c>
       <c r="B140" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D140" s="1">
         <v>950</v>
@@ -9130,10 +9118,10 @@
         <v>33</v>
       </c>
       <c r="B141" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D141" s="1">
         <v>6796</v>
@@ -9144,10 +9132,10 @@
         <v>34</v>
       </c>
       <c r="B142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C142" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D142" s="1">
         <v>3500</v>
@@ -9158,10 +9146,10 @@
         <v>35</v>
       </c>
       <c r="B143" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D143" s="1">
         <v>850</v>
@@ -9172,7 +9160,7 @@
         <v>36</v>
       </c>
       <c r="B144" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C144" t="s">
         <v>11</v>
@@ -9186,7 +9174,7 @@
         <v>37</v>
       </c>
       <c r="B145" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C145" t="s">
         <v>11</v>
@@ -9200,10 +9188,10 @@
         <v>38</v>
       </c>
       <c r="B146" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D146" s="1">
         <v>250</v>
@@ -9214,10 +9202,10 @@
         <v>39</v>
       </c>
       <c r="B147" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D147" s="1">
         <v>200</v>
@@ -9228,10 +9216,10 @@
         <v>40</v>
       </c>
       <c r="B148" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D148" s="1">
         <v>8700</v>
@@ -9242,10 +9230,10 @@
         <v>41</v>
       </c>
       <c r="B149" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C149" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D149" s="1">
         <v>220</v>
@@ -9256,7 +9244,7 @@
         <v>42</v>
       </c>
       <c r="B150" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C150" t="s">
         <v>11</v>
@@ -9270,10 +9258,10 @@
         <v>43</v>
       </c>
       <c r="B151" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C151" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D151" s="1">
         <v>16000</v>
@@ -9284,10 +9272,10 @@
         <v>44</v>
       </c>
       <c r="B152" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D152" s="1">
         <v>400</v>
@@ -9298,10 +9286,10 @@
         <v>45</v>
       </c>
       <c r="B153" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C153" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D153" s="1">
         <v>400</v>
@@ -9312,7 +9300,7 @@
         <v>46</v>
       </c>
       <c r="B154" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C154" t="s">
         <v>11</v>
@@ -9326,7 +9314,7 @@
         <v>47</v>
       </c>
       <c r="B155" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C155" t="s">
         <v>11</v>
@@ -9340,10 +9328,10 @@
         <v>48</v>
       </c>
       <c r="B156" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C156" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D156" s="1">
         <v>270</v>
@@ -9354,10 +9342,10 @@
         <v>49</v>
       </c>
       <c r="B157" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D157" s="1">
         <v>9600</v>
@@ -9368,10 +9356,10 @@
         <v>50</v>
       </c>
       <c r="B158" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C158" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D158" s="1">
         <v>1500</v>
@@ -9382,10 +9370,10 @@
         <v>51</v>
       </c>
       <c r="B159" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C159" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D159" s="1">
         <v>1150</v>
@@ -9396,10 +9384,10 @@
         <v>52</v>
       </c>
       <c r="B160" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C160" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D160" s="1">
         <v>1300</v>
@@ -9410,10 +9398,10 @@
         <v>53</v>
       </c>
       <c r="B161" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D161" s="1">
         <v>2000</v>
@@ -9424,10 +9412,10 @@
         <v>54</v>
       </c>
       <c r="B162" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C162" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D162" s="1">
         <v>3550</v>
@@ -9438,10 +9426,10 @@
         <v>55</v>
       </c>
       <c r="B163" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C163" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D163" s="1">
         <v>241</v>
@@ -9452,10 +9440,10 @@
         <v>56</v>
       </c>
       <c r="B164" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D164" s="1">
         <v>800</v>
@@ -9466,10 +9454,10 @@
         <v>57</v>
       </c>
       <c r="B165" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D165" s="1">
         <v>1690</v>
@@ -9480,7 +9468,7 @@
         <v>58</v>
       </c>
       <c r="B166" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
@@ -9494,10 +9482,10 @@
         <v>59</v>
       </c>
       <c r="B167" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C167" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D167" s="1">
         <v>890</v>
@@ -9508,10 +9496,10 @@
         <v>60</v>
       </c>
       <c r="B168" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C168" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D168" s="1">
         <v>700</v>
@@ -9522,10 +9510,10 @@
         <v>61</v>
       </c>
       <c r="B169" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C169" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D169" s="1">
         <v>355</v>
@@ -9536,10 +9524,10 @@
         <v>62</v>
       </c>
       <c r="B170" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D170" s="1">
         <v>8260</v>
@@ -9550,10 +9538,10 @@
         <v>63</v>
       </c>
       <c r="B171" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C171" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D171" s="1">
         <v>5000</v>
@@ -9564,10 +9552,10 @@
         <v>64</v>
       </c>
       <c r="B172" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C172" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D172" s="1">
         <v>19000</v>
@@ -9578,10 +9566,10 @@
         <v>65</v>
       </c>
       <c r="B173" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D173" s="1">
         <v>500</v>
@@ -9592,10 +9580,10 @@
         <v>66</v>
       </c>
       <c r="B174" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C174" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D174" s="1">
         <v>1200</v>
@@ -9606,7 +9594,7 @@
         <v>67</v>
       </c>
       <c r="B175" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C175" t="s">
         <v>11</v>
@@ -9620,7 +9608,7 @@
         <v>68</v>
       </c>
       <c r="B176" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D176" s="1"/>
     </row>
@@ -9629,10 +9617,10 @@
         <v>69</v>
       </c>
       <c r="B177" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D177" s="1">
         <v>430</v>
@@ -9643,10 +9631,10 @@
         <v>70</v>
       </c>
       <c r="B178" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D178" s="1">
         <v>1940</v>
@@ -9657,10 +9645,10 @@
         <v>71</v>
       </c>
       <c r="B179" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D179" s="1">
         <v>29500</v>
@@ -9671,10 +9659,10 @@
         <v>72</v>
       </c>
       <c r="B180" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D180" s="1">
         <v>4400</v>
@@ -9685,10 +9673,10 @@
         <v>73</v>
       </c>
       <c r="B181" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C181" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D181" s="1">
         <v>6150</v>
@@ -9699,10 +9687,10 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D182" s="1">
         <v>260</v>
@@ -9713,7 +9701,7 @@
         <v>75</v>
       </c>
       <c r="B183" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C183" t="s">
         <v>11</v>
@@ -9727,10 +9715,10 @@
         <v>76</v>
       </c>
       <c r="B184" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C184" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D184" s="1">
         <v>15500</v>
@@ -9741,7 +9729,7 @@
         <v>77</v>
       </c>
       <c r="B185" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C185" t="s">
         <v>11</v>
@@ -9755,10 +9743,10 @@
         <v>78</v>
       </c>
       <c r="B186" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D186" s="1">
         <v>350</v>
@@ -9769,10 +9757,10 @@
         <v>79</v>
       </c>
       <c r="B187" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D187" s="1">
         <v>2000</v>
@@ -9783,10 +9771,10 @@
         <v>80</v>
       </c>
       <c r="B188" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D188" s="1">
         <v>6000</v>
@@ -9797,10 +9785,10 @@
         <v>81</v>
       </c>
       <c r="B189" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C189" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D189" s="1">
         <v>1000</v>
@@ -9811,10 +9799,10 @@
         <v>82</v>
       </c>
       <c r="B190" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D190" s="1">
         <v>550</v>
@@ -9828,7 +9816,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D193" s="1"/>
     </row>
@@ -9848,7 +9836,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C195" t="s">
         <v>11</v>
@@ -9862,10 +9850,10 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C196" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D196" s="1">
         <v>2378</v>
@@ -9876,10 +9864,10 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C197" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D197" s="1">
         <v>1150</v>
@@ -9890,10 +9878,10 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C198" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D198" s="1">
         <v>2000</v>
@@ -9904,10 +9892,10 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D199" s="1">
         <v>500</v>
@@ -9918,10 +9906,10 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C200" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D200" s="1">
         <v>250</v>
@@ -9932,7 +9920,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C201" t="s">
         <v>11</v>
@@ -9946,10 +9934,10 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C202" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D202" s="1">
         <v>660</v>
@@ -9960,10 +9948,10 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D203" s="1">
         <v>1900</v>
@@ -9974,10 +9962,10 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D204" s="1">
         <v>2700</v>
@@ -9988,10 +9976,10 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C205" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D205" s="1">
         <v>600</v>
@@ -10002,7 +9990,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C206" t="s">
         <v>11</v>
@@ -10016,10 +10004,10 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D207" s="1">
         <v>780</v>
@@ -10030,7 +10018,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C208" t="s">
         <v>11</v>
@@ -10044,10 +10032,10 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C209" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D209" s="1">
         <v>1570</v>
@@ -10058,10 +10046,10 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D210" s="1">
         <v>500</v>
@@ -10072,7 +10060,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C211" t="s">
         <v>11</v>
@@ -10086,7 +10074,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C212" t="s">
         <v>11</v>
@@ -10100,10 +10088,10 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C213" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="D213" s="1">
         <v>210</v>
@@ -10114,7 +10102,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C214" t="s">
         <v>11</v>
@@ -10128,10 +10116,10 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D215" s="1">
         <v>580</v>
@@ -10142,10 +10130,10 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D216" s="1">
         <v>1550</v>
@@ -10156,7 +10144,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C217" t="s">
         <v>11</v>
@@ -10170,10 +10158,10 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C218" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D218" s="1">
         <v>2600</v>
@@ -10184,10 +10172,10 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C219" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D219" s="1">
         <v>41100</v>
@@ -10198,10 +10186,10 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D220" s="1">
         <v>940</v>
@@ -10212,10 +10200,10 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C221" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D221" s="1">
         <v>20500</v>
@@ -10226,10 +10214,10 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C222" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D222" s="1">
         <v>800</v>
@@ -10240,10 +10228,10 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C223" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D223" s="1">
         <v>950</v>
@@ -10254,10 +10242,10 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C224" t="s">
-        <v>236</v>
+        <v>122</v>
       </c>
       <c r="D224" s="1">
         <v>280</v>
@@ -10268,10 +10256,10 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C225" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D225" s="1">
         <v>250</v>
@@ -10282,7 +10270,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C226" t="s">
         <v>11</v>
@@ -10296,10 +10284,10 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C227" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D227" s="1">
         <v>350</v>
@@ -10310,7 +10298,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D229" s="1"/>
     </row>
@@ -10330,7 +10318,7 @@
         <v>1</v>
       </c>
       <c r="B231" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C231" t="s">
         <v>11</v>
@@ -10344,7 +10332,7 @@
         <v>2</v>
       </c>
       <c r="B232" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C232" t="s">
         <v>11</v>
@@ -10358,10 +10346,10 @@
         <v>3</v>
       </c>
       <c r="B233" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D233" s="1">
         <v>650</v>
@@ -10372,7 +10360,7 @@
         <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C234" t="s">
         <v>11</v>
@@ -10386,10 +10374,10 @@
         <v>5</v>
       </c>
       <c r="B235" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C235" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D235" s="1">
         <v>2000</v>
@@ -10400,7 +10388,7 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C236" t="s">
         <v>11</v>
@@ -10414,10 +10402,10 @@
         <v>7</v>
       </c>
       <c r="B237" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C237" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D237" s="1">
         <v>2800</v>
@@ -10428,7 +10416,7 @@
         <v>8</v>
       </c>
       <c r="B238" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C238" t="s">
         <v>11</v>
@@ -10442,10 +10430,10 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C239" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D239" s="1">
         <v>40000</v>
@@ -10456,10 +10444,10 @@
         <v>10</v>
       </c>
       <c r="B240" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C240" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D240" s="1">
         <v>4500</v>
@@ -10470,10 +10458,10 @@
         <v>11</v>
       </c>
       <c r="B241" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C241" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D241" s="1">
         <v>1150</v>
@@ -10484,7 +10472,7 @@
         <v>12</v>
       </c>
       <c r="B242" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C242" t="s">
         <v>11</v>
@@ -10498,10 +10486,10 @@
         <v>13</v>
       </c>
       <c r="B243" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C243" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D243" s="1">
         <v>375</v>
@@ -10512,10 +10500,10 @@
         <v>14</v>
       </c>
       <c r="B244" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C244" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D244" s="1">
         <v>410</v>
@@ -10526,7 +10514,7 @@
         <v>15</v>
       </c>
       <c r="B245" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C245" t="s">
         <v>11</v>
@@ -10540,10 +10528,10 @@
         <v>16</v>
       </c>
       <c r="B246" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C246" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D246" s="1">
         <v>6500</v>
@@ -10554,10 +10542,10 @@
         <v>17</v>
       </c>
       <c r="B247" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C247" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D247" s="1">
         <v>1200</v>
@@ -10568,10 +10556,10 @@
         <v>18</v>
       </c>
       <c r="B248" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C248" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D248" s="1">
         <v>600</v>
@@ -10582,7 +10570,7 @@
         <v>19</v>
       </c>
       <c r="B249" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C249" t="s">
         <v>11</v>
@@ -10596,10 +10584,10 @@
         <v>20</v>
       </c>
       <c r="B250" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C250" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D250" s="1">
         <v>650</v>
@@ -10610,10 +10598,10 @@
         <v>21</v>
       </c>
       <c r="B251" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C251" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D251" s="1">
         <v>350</v>
@@ -10624,10 +10612,10 @@
         <v>22</v>
       </c>
       <c r="B252" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C252" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D252" s="1">
         <v>100</v>
@@ -10646,7 +10634,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D256" s="1"/>
     </row>
@@ -10666,7 +10654,7 @@
         <v>1</v>
       </c>
       <c r="B258" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C258" t="s">
         <v>11</v>
@@ -10680,10 +10668,10 @@
         <v>2</v>
       </c>
       <c r="B259" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C259" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D259" s="1">
         <v>1408</v>
@@ -10694,10 +10682,10 @@
         <v>3</v>
       </c>
       <c r="B260" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C260" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D260" s="1">
         <v>3500</v>
@@ -10708,10 +10696,10 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C261" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D261" s="1">
         <v>310</v>
@@ -10722,7 +10710,7 @@
         <v>5</v>
       </c>
       <c r="B262" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C262" t="s">
         <v>11</v>
@@ -10736,10 +10724,10 @@
         <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C263" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D263" s="1">
         <v>900</v>
@@ -10750,10 +10738,10 @@
         <v>7</v>
       </c>
       <c r="B264" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C264" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D264" s="1">
         <v>1500</v>
@@ -10764,7 +10752,7 @@
         <v>8</v>
       </c>
       <c r="B265" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C265" t="s">
         <v>11</v>

--- a/Arbeitsdokumente/TOP1000 Unternehmen.xlsx
+++ b/Arbeitsdokumente/TOP1000 Unternehmen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{92DEDF60-3653-47C3-8310-92207FFF8B07}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E7FC667-ABDD-4D4C-A0AA-9C2E4794D5EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="2" activeTab="5" xr2:uid="{F6644D53-76D2-4041-9EAA-A980037475CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F6644D53-76D2-4041-9EAA-A980037475CC}"/>
   </bookViews>
   <sheets>
     <sheet name="OÖ Kategorisiert" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="284">
   <si>
     <t>Oberösterreich</t>
   </si>
@@ -72,12 +72,6 @@
     <t>BMW Motoren GmbH</t>
   </si>
   <si>
-    <t>Public Sector, Energie, Industrie, Financial Sector</t>
-  </si>
-  <si>
-    <t>Industrie-Sector</t>
-  </si>
-  <si>
     <t>Lenzing Aktiengesellschaft</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Kreuzmayr Gruppe</t>
   </si>
   <si>
-    <t>Handel</t>
-  </si>
-  <si>
     <t>Greiner Group</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
     <t>Doppler Beteiligungs GmbH</t>
   </si>
   <si>
-    <t>HAndel</t>
-  </si>
-  <si>
     <t>Brau Union Österreich AG</t>
   </si>
   <si>
@@ -147,9 +135,6 @@
     <t>Linz AG</t>
   </si>
   <si>
-    <t>Public-Sector</t>
-  </si>
-  <si>
     <t>Polytec Holding AG</t>
   </si>
   <si>
@@ -201,9 +186,6 @@
     <t>OÖ Versicherung AG</t>
   </si>
   <si>
-    <t>Financial-Sector</t>
-  </si>
-  <si>
     <t>Gebr.Haider Bauunternehmung Gruppe</t>
   </si>
   <si>
@@ -225,12 +207,6 @@
     <t>GE Healthcare GmbH &amp; CO OHG</t>
   </si>
   <si>
-    <t>Bau, handel, möbel, it, medizin</t>
-  </si>
-  <si>
-    <t>Medizin-Sector</t>
-  </si>
-  <si>
     <t>Borealis Agrolinz Melamine GmbH</t>
   </si>
   <si>
@@ -408,9 +384,6 @@
     <t>Porr</t>
   </si>
   <si>
-    <t>Bau-Sector</t>
-  </si>
-  <si>
     <t>Asfinag</t>
   </si>
   <si>
@@ -429,9 +402,6 @@
     <t>WienEnergie</t>
   </si>
   <si>
-    <t>Energie-Sector</t>
-  </si>
-  <si>
     <t>ABB</t>
   </si>
   <si>
@@ -492,9 +462,6 @@
     <t>Barmherzige Brüder</t>
   </si>
   <si>
-    <t>Medizin</t>
-  </si>
-  <si>
     <t>SeneCura</t>
   </si>
   <si>
@@ -858,9 +825,6 @@
     <t>Wien Kategorisiert</t>
   </si>
   <si>
-    <t>Branchen</t>
-  </si>
-  <si>
     <t>Alle Unternehmen</t>
   </si>
   <si>
@@ -873,10 +837,61 @@
     <t>NÖ Kategorisiert</t>
   </si>
   <si>
-    <t xml:space="preserve">Energie-Sector </t>
-  </si>
-  <si>
-    <t>IT-Sector</t>
+    <t>Baugewerbe</t>
+  </si>
+  <si>
+    <t>Industriebereich</t>
+  </si>
+  <si>
+    <t>Informations- und Kommunikationsbereich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Verarbeitende Industrie / Herstellung von Waren</t>
+  </si>
+  <si>
+    <t>Erbringung von Finanz- und Versicherungsdienstleistungen</t>
+  </si>
+  <si>
+    <t>Energieversorgung</t>
+  </si>
+  <si>
+    <t>Gesundheits- und Sozialwesen</t>
+  </si>
+  <si>
+    <t>Öffentliche Verwaltung, Verteidigung</t>
+  </si>
+  <si>
+    <t>Verarbeitende Industrie / Herstellung von Waren</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>BRANCHEN</t>
+  </si>
+  <si>
+    <t>Öffentliche Verwaltung, Verteidigung-Sector</t>
+  </si>
+  <si>
+    <t>Verarbeitende Industrie / Herstellung von Warenshaus Pilstl GmbH &amp; Co KG</t>
+  </si>
+  <si>
+    <t>Hartlauer Verarbeitende Industrie / Herstellung von Warensgesellschaft m.b.H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quester BaustoffVerarbeitende Industrie / Herstellung von Waren </t>
+  </si>
+  <si>
+    <t>Öffentliche Verwaltung, Verteidigung Sector, Energie, Industrie, Erbringung von Finanz- und Versicherungsdienstleistungen Sector</t>
+  </si>
+  <si>
+    <t>Informations- und KommunikationsbereichIndustrie</t>
+  </si>
+  <si>
+    <t>Bau, Verarbeitende Industrie / Herstellung von Waren, möbel, it, Gesundheits- und Sozialwesen</t>
   </si>
 </sst>
 </file>
@@ -936,7 +951,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -944,11 +959,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -965,6 +989,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2859,15 +2886,15 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
-        <item n="Bau-Sector" x="3"/>
-        <item n="Energie-Sector " x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item n="IT-Sector" x="6"/>
-        <item x="8"/>
+        <item n="Baugewerbe" x="3"/>
+        <item n="Energieversorgung" x="4"/>
+        <item n="Erbringung von Finanz- und Versicherungsdienstleistungen" x="7"/>
+        <item n="_x0009_Verarbeitende Industrie / Herstellung von Waren" x="2"/>
+        <item n="Industriebereich" x="0"/>
+        <item n="Informations- und Kommunikationsbereich" x="6"/>
+        <item n="Gesundheits- und Sozialwesen" x="8"/>
         <item x="1"/>
-        <item x="5"/>
+        <item n="Öffentliche Verwaltung, Verteidigung" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3221,7 +3248,7 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Branchen" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="BRANCHEN" fld="0" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Summe von Mitarbeiter" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -3280,14 +3307,14 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="9">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item n="IT-Sector" x="7"/>
-        <item x="5"/>
-        <item x="6"/>
+        <item n="Baugewerbe" x="2"/>
+        <item n="Energieversorgung" x="1"/>
+        <item n="Erbringung von Finanz- und Versicherungsdienstleistungen" x="4"/>
+        <item n="Verarbeitende Industrie / Herstellung von Waren" x="3"/>
+        <item n="Industriebereich" x="0"/>
+        <item n="Informations- und Kommunikationsbereich" x="7"/>
+        <item n="Gesundheits- und Sozialwesen" x="5"/>
+        <item n="Öffentliche Verwaltung, Verteidigung" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3476,13 +3503,13 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item n="IT-Sector" x="4"/>
-        <item x="5"/>
-        <item x="1"/>
+        <item n="Energieversorgung" x="2"/>
+        <item n="Erbringung von Finanz- und Versicherungsdienstleistungen" x="6"/>
+        <item n="Verarbeitende Industrie / Herstellung von Waren" x="3"/>
+        <item n="Industriebereich" x="0"/>
+        <item n="Informations- und Kommunikationsbereich" x="4"/>
+        <item n="Gesundheits- und Sozialwesen" x="5"/>
+        <item n="Öffentliche Verwaltung, Verteidigung" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3621,11 +3648,11 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item n="IT-Sector" x="2"/>
-        <item x="4"/>
+        <item n="Energieversorgung" x="1"/>
+        <item n="Erbringung von Finanz- und Versicherungsdienstleistungen" x="3"/>
+        <item n="Industriebereich" x="0"/>
+        <item n="Informations- und Kommunikationsbereich" x="2"/>
+        <item n="Öffentliche Verwaltung, Verteidigung" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3789,14 +3816,14 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
-        <item x="3"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item n="IT-Sector" x="2"/>
-        <item x="7"/>
-        <item x="0"/>
+        <item n="Baugewerbe" x="3"/>
+        <item n="Energieversorgung" x="6"/>
+        <item n="Erbringung von Finanz- und Versicherungsdienstleistungen" x="4"/>
+        <item n="Verarbeitende Industrie / Herstellung von Waren" x="5"/>
+        <item n="Industriebereich" x="1"/>
+        <item n="Informations- und Kommunikationsbereich" x="2"/>
+        <item n="Gesundheits- und Sozialwesen" x="7"/>
+        <item n="Öffentliche Verwaltung, Verteidigung" x="0"/>
         <item x="8"/>
         <item t="default"/>
       </items>
@@ -4402,36 +4429,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1C627F-1CB1-45FF-8303-4BBFD02D2E63}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="B4" s="8">
         <v>12</v>
@@ -4442,7 +4469,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
@@ -4453,7 +4480,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
@@ -4464,7 +4491,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -4475,7 +4502,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -4486,7 +4513,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -4497,7 +4524,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -4508,7 +4535,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -4519,7 +4546,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -4530,7 +4557,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B13" s="8">
         <v>1</v>
@@ -4541,7 +4568,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
@@ -4552,7 +4579,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
@@ -4563,7 +4590,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
@@ -4574,7 +4601,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B17" s="8">
         <v>2</v>
@@ -4585,7 +4612,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
@@ -4596,7 +4623,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -4607,7 +4634,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
@@ -4618,7 +4645,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
@@ -4629,7 +4656,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="B22" s="8">
         <v>32</v>
@@ -4640,7 +4667,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -4651,7 +4678,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
@@ -4662,7 +4689,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
@@ -4673,7 +4700,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B26" s="8">
         <v>1</v>
@@ -4684,7 +4711,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>
@@ -4695,7 +4722,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
@@ -4706,7 +4733,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
@@ -4717,7 +4744,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B30" s="8">
         <v>1</v>
@@ -4728,7 +4755,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B31" s="8">
         <v>1</v>
@@ -4739,7 +4766,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
@@ -4761,7 +4788,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B34" s="8">
         <v>1</v>
@@ -4772,7 +4799,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
@@ -4783,7 +4810,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
@@ -4794,7 +4821,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B37" s="8">
         <v>1</v>
@@ -4805,7 +4832,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B38" s="8">
         <v>1</v>
@@ -4816,7 +4843,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
@@ -4827,7 +4854,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B40" s="8">
         <v>1</v>
@@ -4838,7 +4865,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
@@ -4849,7 +4876,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B42" s="8">
         <v>1</v>
@@ -4860,7 +4887,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
@@ -4871,7 +4898,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B44" s="8">
         <v>1</v>
@@ -4882,7 +4909,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
@@ -4893,7 +4920,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B46" s="8">
         <v>1</v>
@@ -4904,7 +4931,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B47" s="8">
         <v>1</v>
@@ -4915,7 +4942,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8">
         <v>1</v>
@@ -4926,7 +4953,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B49" s="8">
         <v>1</v>
@@ -4937,7 +4964,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B50" s="8">
         <v>1</v>
@@ -4948,7 +4975,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B51" s="8">
         <v>1</v>
@@ -4959,7 +4986,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B52" s="8">
         <v>1</v>
@@ -4970,7 +4997,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B53" s="8">
         <v>1</v>
@@ -4981,7 +5008,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B54" s="8">
         <v>1</v>
@@ -4992,7 +5019,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="B55" s="8">
         <v>44</v>
@@ -5003,7 +5030,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B56" s="8">
         <v>1</v>
@@ -5014,7 +5041,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B57" s="8">
         <v>1</v>
@@ -5025,7 +5052,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B58" s="8">
         <v>1</v>
@@ -5036,7 +5063,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B59" s="8">
         <v>1</v>
@@ -5047,7 +5074,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B60" s="8">
         <v>1</v>
@@ -5069,7 +5096,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B62" s="8">
         <v>1</v>
@@ -5080,7 +5107,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B63" s="8">
         <v>1</v>
@@ -5091,7 +5118,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B64" s="8">
         <v>1</v>
@@ -5102,7 +5129,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B65" s="8">
         <v>1</v>
@@ -5113,7 +5140,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B66" s="8">
         <v>1</v>
@@ -5124,7 +5151,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B67" s="8">
         <v>1</v>
@@ -5135,7 +5162,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B68" s="8">
         <v>1</v>
@@ -5146,7 +5173,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B69" s="8">
         <v>1</v>
@@ -5157,7 +5184,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B70" s="8">
         <v>1</v>
@@ -5168,7 +5195,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B71" s="8">
         <v>1</v>
@@ -5179,7 +5206,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B72" s="8">
         <v>1</v>
@@ -5190,7 +5217,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B73" s="8">
         <v>1</v>
@@ -5201,7 +5228,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B74" s="8">
         <v>1</v>
@@ -5212,7 +5239,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B75" s="8">
         <v>1</v>
@@ -5223,7 +5250,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B76" s="8">
         <v>1</v>
@@ -5234,7 +5261,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B77" s="8">
         <v>1</v>
@@ -5245,7 +5272,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B78" s="8">
         <v>1</v>
@@ -5256,7 +5283,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B79" s="8">
         <v>1</v>
@@ -5267,7 +5294,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B80" s="8">
         <v>1</v>
@@ -5278,7 +5305,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B81" s="8">
         <v>1</v>
@@ -5289,7 +5316,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B82" s="8">
         <v>1</v>
@@ -5300,7 +5327,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B83" s="8">
         <v>1</v>
@@ -5311,7 +5338,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B84" s="8">
         <v>1</v>
@@ -5322,7 +5349,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B85" s="8">
         <v>1</v>
@@ -5333,7 +5360,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B86" s="8">
         <v>1</v>
@@ -5344,7 +5371,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B87" s="8">
         <v>1</v>
@@ -5355,7 +5382,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B88" s="8">
         <v>1</v>
@@ -5366,7 +5393,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B89" s="8">
         <v>1</v>
@@ -5377,7 +5404,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B90" s="8">
         <v>1</v>
@@ -5388,7 +5415,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B91" s="8">
         <v>1</v>
@@ -5399,7 +5426,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B92" s="8">
         <v>1</v>
@@ -5410,7 +5437,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B93" s="8">
         <v>1</v>
@@ -5421,7 +5448,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B94" s="8">
         <v>1</v>
@@ -5432,7 +5459,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B95" s="8">
         <v>1</v>
@@ -5443,7 +5470,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B96" s="8">
         <v>1</v>
@@ -5465,7 +5492,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B98" s="8">
         <v>1</v>
@@ -5476,7 +5503,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B99" s="8">
         <v>1</v>
@@ -5487,7 +5514,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B100" s="8">
         <v>3</v>
@@ -5498,7 +5525,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B101" s="8">
         <v>1</v>
@@ -5509,7 +5536,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B102" s="8">
         <v>1</v>
@@ -5520,7 +5547,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B103" s="8">
         <v>1</v>
@@ -5531,7 +5558,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>62</v>
+        <v>271</v>
       </c>
       <c r="B104" s="8">
         <v>1</v>
@@ -5542,7 +5569,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B105" s="8">
         <v>1</v>
@@ -5575,7 +5602,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="B108" s="8">
         <v>4</v>
@@ -5586,7 +5613,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B109" s="8">
         <v>1</v>
@@ -5597,7 +5624,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B110" s="8">
         <v>1</v>
@@ -5608,7 +5635,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B111" s="8">
         <v>1</v>
@@ -5619,7 +5646,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B112" s="8">
         <v>1</v>
@@ -5630,7 +5657,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B113" s="8">
         <v>100</v>
@@ -5649,32 +5676,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB684659-985A-4CE6-9E12-7B6C459DA584}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="B4" s="8">
         <v>4340</v>
@@ -5682,7 +5709,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B5" s="8">
         <v>280</v>
@@ -5690,7 +5717,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B6" s="8">
         <v>2000</v>
@@ -5698,7 +5725,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B7" s="8">
         <v>1150</v>
@@ -5706,7 +5733,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B8" s="8">
         <v>660</v>
@@ -5714,7 +5741,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B9" s="8">
         <v>250</v>
@@ -5722,7 +5749,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="B10" s="8">
         <v>2378</v>
@@ -5730,7 +5757,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B11" s="8">
         <v>2378</v>
@@ -5738,7 +5765,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="B12" s="8">
         <v>3450</v>
@@ -5746,7 +5773,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B13" s="8">
         <v>250</v>
@@ -5754,7 +5781,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B14" s="8">
         <v>600</v>
@@ -5762,7 +5789,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B15" s="8">
         <v>2600</v>
@@ -5770,7 +5797,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="B16" s="8">
         <v>49080</v>
@@ -5778,7 +5805,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B17" s="8">
         <v>500</v>
@@ -5786,7 +5813,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B18" s="8">
         <v>2700</v>
@@ -5794,7 +5821,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B19" s="8">
         <v>1900</v>
@@ -5802,7 +5829,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B20" s="8">
         <v>350</v>
@@ -5810,7 +5837,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B21" s="8">
         <v>41100</v>
@@ -5818,7 +5845,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B22" s="8">
         <v>950</v>
@@ -5826,7 +5853,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B23" s="8">
         <v>800</v>
@@ -5834,7 +5861,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B24" s="8">
         <v>780</v>
@@ -5842,7 +5869,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="B25" s="8">
         <v>9990</v>
@@ -5850,7 +5877,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B26" s="8">
         <v>250</v>
@@ -5858,7 +5885,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B27" s="8">
         <v>2700</v>
@@ -5866,7 +5893,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B28" s="8">
         <v>230</v>
@@ -5874,7 +5901,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B29" s="8">
         <v>300</v>
@@ -5882,7 +5909,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B30" s="8">
         <v>900</v>
@@ -5890,7 +5917,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B31" s="8">
         <v>580</v>
@@ -5898,7 +5925,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B32" s="8">
         <v>680</v>
@@ -5906,7 +5933,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B33" s="8">
         <v>1100</v>
@@ -5914,7 +5941,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B34" s="8">
         <v>3250</v>
@@ -5922,7 +5949,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B35" s="8">
         <v>210</v>
@@ -5930,7 +5957,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B36" s="8">
         <v>210</v>
@@ -5938,7 +5965,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="B37" s="8">
         <v>22070</v>
@@ -5946,7 +5973,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B38" s="8">
         <v>20500</v>
@@ -5954,7 +5981,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B39" s="8">
         <v>1570</v>
@@ -5962,7 +5989,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="B40" s="8">
         <v>3570</v>
@@ -5970,7 +5997,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B41" s="8">
         <v>580</v>
@@ -5978,7 +6005,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B42" s="8">
         <v>940</v>
@@ -5986,7 +6013,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B43" s="8">
         <v>500</v>
@@ -5994,7 +6021,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B44" s="8">
         <v>1550</v>
@@ -6002,7 +6029,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B45" s="8">
         <v>95088</v>
@@ -6017,32 +6044,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA480559-02E8-4E7B-B5EB-1965C3B74435}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="B4" s="8">
         <v>2000</v>
@@ -6050,7 +6077,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B5" s="8">
         <v>2000</v>
@@ -6058,7 +6085,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="B6" s="8">
         <v>350</v>
@@ -6066,7 +6093,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B7" s="8">
         <v>350</v>
@@ -6074,7 +6101,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="B8" s="8">
         <v>53125</v>
@@ -6082,7 +6109,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B9" s="8">
         <v>6500</v>
@@ -6090,7 +6117,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B10" s="8">
         <v>4500</v>
@@ -6098,7 +6125,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B11" s="8">
         <v>1150</v>
@@ -6106,7 +6133,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B12" s="8">
         <v>600</v>
@@ -6114,7 +6141,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B13" s="8">
         <v>40000</v>
@@ -6122,7 +6149,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B14" s="8">
         <v>375</v>
@@ -6130,7 +6157,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="B15" s="8">
         <v>9435</v>
@@ -6138,7 +6165,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B16" s="8">
         <v>700</v>
@@ -6146,7 +6173,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B17" s="8">
         <v>600</v>
@@ -6154,7 +6181,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B18" s="8">
         <v>355</v>
@@ -6162,7 +6189,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B19" s="8">
         <v>4600</v>
@@ -6170,7 +6197,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B20" s="8">
         <v>1500</v>
@@ -6178,7 +6205,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B21" s="8">
         <v>430</v>
@@ -6186,7 +6213,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B22" s="8">
         <v>1050</v>
@@ -6194,7 +6221,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B23" s="8">
         <v>200</v>
@@ -6202,7 +6229,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B24" s="8">
         <v>510</v>
@@ -6210,7 +6237,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B25" s="8">
         <v>100</v>
@@ -6218,7 +6245,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B26" s="8">
         <v>410</v>
@@ -6226,7 +6253,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="B27" s="8">
         <v>1850</v>
@@ -6234,7 +6261,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B28" s="8">
         <v>1200</v>
@@ -6242,7 +6269,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B29" s="8">
         <v>650</v>
@@ -6250,7 +6277,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="B30" s="8">
         <v>3450</v>
@@ -6258,7 +6285,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B31" s="8">
         <v>650</v>
@@ -6266,7 +6293,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B32" s="8">
         <v>2800</v>
@@ -6274,7 +6301,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B33" s="8">
         <v>70720</v>
@@ -6287,141 +6314,150 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E659077F-3972-483D-8493-88C3A90F6421}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="B4" s="8">
         <v>1408</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B5" s="8">
         <v>1408</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="B6" s="8">
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B7" s="8">
         <v>900</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="B8" s="8">
         <v>1860</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B9" s="8">
         <v>630</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B10" s="8">
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B11" s="8">
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B12" s="8">
         <v>3810</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B13" s="8">
         <v>3500</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B14" s="8">
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="B15" s="8">
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B16" s="8">
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B17" s="8">
         <v>9478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6433,32 +6469,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C0734-0F5F-4F20-91B8-3402CA19BFC3}">
   <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:B93"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" start="89" max="92" activeRow="92" previousRow="92" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" fieldPosition="0">
+          <references count="1">
+            <reference field="1" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="B4" s="8">
         <v>15990</v>
@@ -6466,7 +6512,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B5" s="8">
         <v>2710</v>
@@ -6474,7 +6520,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B6" s="8">
         <v>1000</v>
@@ -6482,7 +6528,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B7" s="8">
         <v>2060</v>
@@ -6490,7 +6536,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B8" s="8">
         <v>10000</v>
@@ -6498,7 +6544,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B9" s="8">
         <v>220</v>
@@ -6506,7 +6552,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="B10" s="8">
         <v>41034</v>
@@ -6514,7 +6560,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B11" s="8">
         <v>19000</v>
@@ -6522,7 +6568,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B12" s="8">
         <v>400</v>
@@ -6530,7 +6576,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B13" s="8">
         <v>2934</v>
@@ -6538,7 +6584,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B14" s="8">
         <v>2700</v>
@@ -6546,7 +6592,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B15" s="8">
         <v>16000</v>
@@ -6554,7 +6600,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="B16" s="8">
         <v>27926</v>
@@ -6562,7 +6608,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B17" s="8">
         <v>400</v>
@@ -6570,7 +6616,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B18" s="8">
         <v>240</v>
@@ -6578,7 +6624,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B19" s="8">
         <v>241</v>
@@ -6586,7 +6632,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B20" s="8">
         <v>470</v>
@@ -6594,7 +6640,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B21" s="8">
         <v>15500</v>
@@ -6602,7 +6648,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B22" s="8">
         <v>1500</v>
@@ -6610,7 +6656,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B23" s="8">
         <v>5000</v>
@@ -6618,7 +6664,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B24" s="8">
         <v>270</v>
@@ -6626,7 +6672,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B25" s="8">
         <v>850</v>
@@ -6634,7 +6680,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B26" s="8">
         <v>1200</v>
@@ -6642,7 +6688,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B27" s="8">
         <v>700</v>
@@ -6650,7 +6696,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B28" s="8">
         <v>355</v>
@@ -6658,7 +6704,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B29" s="8">
         <v>1200</v>
@@ -6666,7 +6712,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="B30" s="8">
         <v>9650</v>
@@ -6674,7 +6720,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B31" s="8">
         <v>2000</v>
@@ -6682,7 +6728,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B32" s="8">
         <v>550</v>
@@ -6690,7 +6736,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B33" s="8">
         <v>200</v>
@@ -6698,7 +6744,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B34" s="8">
         <v>1000</v>
@@ -6706,7 +6752,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B35" s="8">
         <v>1940</v>
@@ -6714,7 +6760,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B36" s="8">
         <v>850</v>
@@ -6722,7 +6768,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B37" s="8">
         <v>390</v>
@@ -6730,7 +6776,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B38" s="8">
         <v>430</v>
@@ -6738,7 +6784,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B39" s="8">
         <v>950</v>
@@ -6746,7 +6792,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B40" s="8">
         <v>350</v>
@@ -6754,7 +6800,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B41" s="8">
         <v>500</v>
@@ -6762,7 +6808,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B42" s="8">
         <v>250</v>
@@ -6770,7 +6816,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B43" s="8">
         <v>240</v>
@@ -6778,7 +6824,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="B44" s="8">
         <v>19338</v>
@@ -6786,7 +6832,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B45" s="8">
         <v>400</v>
@@ -6794,7 +6840,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B46" s="8">
         <v>230</v>
@@ -6802,7 +6848,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B47" s="8">
         <v>1500</v>
@@ -6810,7 +6856,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B48" s="8">
         <v>1700</v>
@@ -6818,7 +6864,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B49" s="8">
         <v>3000</v>
@@ -6826,7 +6872,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B50" s="8">
         <v>1500</v>
@@ -6834,7 +6880,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B51" s="8">
         <v>760</v>
@@ -6842,7 +6888,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B52" s="8">
         <v>500</v>
@@ -6850,7 +6896,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B53" s="8">
         <v>5000</v>
@@ -6858,7 +6904,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B54" s="8">
         <v>2000</v>
@@ -6866,7 +6912,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B55" s="8">
         <v>1750</v>
@@ -6874,7 +6920,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B56" s="8">
         <v>400</v>
@@ -6882,7 +6928,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B57" s="8">
         <v>310</v>
@@ -6890,7 +6936,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B58" s="8">
         <v>288</v>
@@ -6898,7 +6944,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B59" s="8">
         <v>8410</v>
@@ -6906,7 +6952,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B60" s="8">
         <v>430</v>
@@ -6914,7 +6960,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B61" s="8">
         <v>260</v>
@@ -6922,7 +6968,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B62" s="8">
         <v>1150</v>
@@ -6930,7 +6976,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B63" s="8">
         <v>500</v>
@@ -6938,7 +6984,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B64" s="8">
         <v>880</v>
@@ -6946,7 +6992,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B65" s="8">
         <v>1300</v>
@@ -6954,7 +7000,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B66" s="8">
         <v>350</v>
@@ -6962,7 +7008,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B67" s="8">
         <v>650</v>
@@ -6970,7 +7016,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B68" s="8">
         <v>890</v>
@@ -6978,7 +7024,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B69" s="8">
         <v>400</v>
@@ -6986,7 +7032,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B70" s="8">
         <v>600</v>
@@ -6994,7 +7040,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B71" s="8">
         <v>1000</v>
@@ -7002,7 +7048,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="B72" s="8">
         <v>19996</v>
@@ -7010,7 +7056,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B73" s="8">
         <v>6796</v>
@@ -7018,7 +7064,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B74" s="8">
         <v>3500</v>
@@ -7026,7 +7072,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B75" s="8">
         <v>6150</v>
@@ -7034,7 +7080,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B76" s="8">
         <v>3550</v>
@@ -7042,7 +7088,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="B77" s="8">
         <v>83876</v>
@@ -7050,7 +7096,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B78" s="8">
         <v>6000</v>
@@ -7058,7 +7104,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B79" s="8">
         <v>987</v>
@@ -7066,7 +7112,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B80" s="8">
         <v>5800</v>
@@ -7074,7 +7120,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B81" s="8">
         <v>1690</v>
@@ -7082,7 +7128,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B82" s="8">
         <v>430</v>
@@ -7090,7 +7136,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B83" s="8">
         <v>4400</v>
@@ -7098,7 +7144,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B84" s="8">
         <v>2000</v>
@@ -7106,7 +7152,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B85" s="8">
         <v>400</v>
@@ -7114,7 +7160,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B86" s="8">
         <v>29500</v>
@@ -7122,7 +7168,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B87" s="8">
         <v>500</v>
@@ -7130,7 +7176,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B88" s="8">
         <v>8260</v>
@@ -7138,7 +7184,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B89" s="8">
         <v>4809</v>
@@ -7146,7 +7192,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B90" s="8">
         <v>800</v>
@@ -7154,7 +7200,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B91" s="8">
         <v>9600</v>
@@ -7162,7 +7208,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B92" s="8">
         <v>8700</v>
@@ -7170,19 +7216,19 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B93" s="8"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B94" s="8"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B95" s="8">
         <v>226220</v>
@@ -7197,20 +7243,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9AEC76-36DB-E04D-983F-053CE4B5DAE9}">
   <dimension ref="A1:K286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B253" workbookViewId="0">
-      <selection activeCell="C221" sqref="C221"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="11" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -7243,7 +7289,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D5" s="1">
         <v>49703</v>
@@ -7257,7 +7303,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>273</v>
       </c>
       <c r="D6" s="1">
         <v>21500</v>
@@ -7271,7 +7317,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D7" s="1">
         <v>10000</v>
@@ -7285,7 +7331,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D8" s="1">
         <v>3182</v>
@@ -7296,10 +7342,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D9" s="1">
         <v>6218</v>
@@ -7310,10 +7356,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D10" s="1">
         <v>8957</v>
@@ -7324,10 +7370,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D11" s="1">
         <v>349</v>
@@ -7338,10 +7384,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D12" s="1">
         <v>4362</v>
@@ -7352,10 +7398,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D13" s="1">
         <v>9722</v>
@@ -7366,10 +7412,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D14" s="1">
         <v>5083</v>
@@ -7380,10 +7426,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D15" s="1">
         <v>5069</v>
@@ -7394,10 +7440,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D16" s="1">
         <v>1880</v>
@@ -7408,10 +7454,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D17" s="1">
         <v>4716</v>
@@ -7422,10 +7468,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D18" s="1">
         <v>128</v>
@@ -7436,10 +7482,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D19" s="1">
         <v>60</v>
@@ -7450,10 +7496,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D20" s="1">
         <v>1762</v>
@@ -7464,10 +7510,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D21" s="1">
         <v>2620</v>
@@ -7478,10 +7524,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D22" s="1">
         <v>3375</v>
@@ -7492,10 +7538,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D23" s="1">
         <v>1500</v>
@@ -7506,10 +7552,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D24" s="1">
         <v>2030</v>
@@ -7520,10 +7566,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D25" s="1">
         <v>5800</v>
@@ -7534,10 +7580,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="D26" s="1">
         <v>550</v>
@@ -7548,10 +7594,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D27" s="1">
         <v>2250</v>
@@ -7562,10 +7608,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D28" s="1">
         <v>3390</v>
@@ -7576,10 +7622,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D29" s="1">
         <v>2800</v>
@@ -7590,10 +7636,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D30" s="1">
         <v>4050</v>
@@ -7604,10 +7650,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D31" s="1">
         <v>2860</v>
@@ -7618,10 +7664,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D32" s="1">
         <v>1150</v>
@@ -7632,10 +7678,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D33" s="1">
         <v>2780</v>
@@ -7646,10 +7692,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D34" s="1">
         <v>3320</v>
@@ -7660,10 +7706,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D35" s="1">
         <v>1800</v>
@@ -7674,10 +7720,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D36" s="1">
         <v>400</v>
@@ -7688,10 +7734,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D37" s="1">
         <v>2750</v>
@@ -7702,10 +7748,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D38" s="1">
         <v>2700</v>
@@ -7716,10 +7762,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D39" s="1">
         <v>676</v>
@@ -7730,10 +7776,10 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D40" s="1">
         <v>3800</v>
@@ -7744,10 +7790,10 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D41" s="1">
         <v>3700</v>
@@ -7758,33 +7804,28 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D42" s="1">
         <v>3600</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D43" s="1">
         <v>3050</v>
-      </c>
-      <c r="K43" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -7792,10 +7833,10 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D44" s="1">
         <v>1300</v>
@@ -7806,10 +7847,10 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D45" s="1">
         <v>720</v>
@@ -7820,10 +7861,10 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D46" s="1">
         <v>2000</v>
@@ -7834,10 +7875,10 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D47" s="1">
         <v>1000</v>
@@ -7848,10 +7889,10 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D48" s="1">
         <v>350</v>
@@ -7862,10 +7903,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D49" s="1">
         <v>1330</v>
@@ -7876,10 +7917,10 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>278</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D50" s="1">
         <v>85</v>
@@ -7890,10 +7931,10 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D51" s="1">
         <v>850</v>
@@ -7904,10 +7945,10 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>271</v>
       </c>
       <c r="D52" s="1">
         <v>300</v>
@@ -7918,10 +7959,10 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D53" s="1">
         <v>720</v>
@@ -7932,10 +7973,10 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D54" s="1">
         <v>1450</v>
@@ -7946,10 +7987,10 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D55" s="1">
         <v>2250</v>
@@ -7960,10 +8001,10 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D56" s="1">
         <v>120</v>
@@ -7974,10 +8015,10 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D57" s="1">
         <v>850</v>
@@ -7988,10 +8029,10 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D58" s="1">
         <v>1350</v>
@@ -8002,10 +8043,10 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D59" s="1">
         <v>50</v>
@@ -8016,10 +8057,10 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D60" s="1">
         <v>940</v>
@@ -8030,10 +8071,10 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D61" s="1">
         <v>1700</v>
@@ -8044,10 +8085,10 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D62" s="1">
         <v>1300</v>
@@ -8058,10 +8099,10 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D63" s="1">
         <v>530</v>
@@ -8072,10 +8113,10 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D64" s="1">
         <v>1310</v>
@@ -8086,10 +8127,10 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D65" s="1">
         <v>120</v>
@@ -8100,10 +8141,10 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D66" s="1">
         <v>800</v>
@@ -8114,10 +8155,10 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D67" s="1">
         <v>520</v>
@@ -8128,10 +8169,10 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D68" s="1">
         <v>850</v>
@@ -8142,10 +8183,10 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>277</v>
       </c>
       <c r="D69" s="1">
         <v>1800</v>
@@ -8156,10 +8197,10 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D70" s="1">
         <v>1500</v>
@@ -8170,10 +8211,10 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D71" s="1">
         <v>1150</v>
@@ -8184,10 +8225,10 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D72" s="1">
         <v>600</v>
@@ -8198,10 +8239,10 @@
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D73" s="1">
         <v>700</v>
@@ -8212,10 +8253,10 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D74" s="1">
         <v>1000</v>
@@ -8226,10 +8267,10 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D75" s="1">
         <v>210</v>
@@ -8240,10 +8281,10 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D76" s="1">
         <v>700</v>
@@ -8254,10 +8295,10 @@
         <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D77" s="1">
         <v>260</v>
@@ -8268,10 +8309,10 @@
         <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D78" s="1">
         <v>630</v>
@@ -8282,10 +8323,10 @@
         <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D79" s="1">
         <v>1000</v>
@@ -8296,10 +8337,10 @@
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D80" s="1">
         <v>360</v>
@@ -8310,10 +8351,10 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D81" s="1">
         <v>1400</v>
@@ -8324,10 +8365,10 @@
         <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D82" s="1">
         <v>875</v>
@@ -8338,10 +8379,10 @@
         <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D83" s="1">
         <v>826</v>
@@ -8352,10 +8393,10 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D84" s="1">
         <v>1100</v>
@@ -8366,10 +8407,10 @@
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D85" s="1">
         <v>1220</v>
@@ -8380,10 +8421,10 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D86" s="1">
         <v>470</v>
@@ -8394,10 +8435,10 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D87" s="1">
         <v>625</v>
@@ -8408,10 +8449,10 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D88" s="1">
         <v>350</v>
@@ -8422,10 +8463,10 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D89" s="1">
         <v>2500</v>
@@ -8436,10 +8477,10 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D90" s="1">
         <v>220</v>
@@ -8450,10 +8491,10 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D91" s="1">
         <v>1133</v>
@@ -8464,10 +8505,10 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D92" s="1">
         <v>500</v>
@@ -8478,10 +8519,10 @@
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D93" s="1">
         <v>1550</v>
@@ -8492,10 +8533,10 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D94" s="1">
         <v>4500</v>
@@ -8506,10 +8547,10 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D95" s="1">
         <v>350</v>
@@ -8520,10 +8561,10 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D96" s="1">
         <v>660</v>
@@ -8534,10 +8575,10 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D97" s="1">
         <v>950</v>
@@ -8548,10 +8589,10 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>277</v>
       </c>
       <c r="D98" s="1">
         <v>240</v>
@@ -8562,10 +8603,10 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D99" s="1">
         <v>1000</v>
@@ -8576,10 +8617,10 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D100" s="1">
         <v>500</v>
@@ -8590,10 +8631,10 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D101" s="1">
         <v>650</v>
@@ -8604,10 +8645,10 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D102" s="1">
         <v>50</v>
@@ -8618,10 +8659,10 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D103" s="1">
         <v>300</v>
@@ -8632,10 +8673,10 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D104" s="1">
         <v>350</v>
@@ -8643,15 +8684,15 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H106" s="2" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H107" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -8670,10 +8711,10 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D109" s="1">
         <v>987</v>
@@ -8684,10 +8725,10 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D110" s="1">
         <v>5800</v>
@@ -8698,10 +8739,10 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D111" s="1">
         <v>1750</v>
@@ -8712,10 +8753,10 @@
         <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D112" s="1">
         <v>1700</v>
@@ -8726,10 +8767,10 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D113" s="1">
         <v>880</v>
@@ -8740,10 +8781,10 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D114" s="1">
         <v>400</v>
@@ -8754,10 +8795,10 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D115" s="1">
         <v>2060</v>
@@ -8768,10 +8809,10 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D116" s="1">
         <v>2710</v>
@@ -8782,10 +8823,10 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D117" s="1">
         <v>470</v>
@@ -8796,10 +8837,10 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D118" s="1">
         <v>240</v>
@@ -8810,10 +8851,10 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D119" s="1">
         <v>350</v>
@@ -8824,10 +8865,10 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D120" s="1">
         <v>500</v>
@@ -8838,10 +8879,10 @@
         <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="D121" s="1">
         <v>2700</v>
@@ -8852,10 +8893,10 @@
         <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D122" s="1">
         <v>400</v>
@@ -8866,10 +8907,10 @@
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D123" s="1">
         <v>850</v>
@@ -8880,10 +8921,10 @@
         <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D124" s="1">
         <v>10000</v>
@@ -8894,10 +8935,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D125" s="1">
         <v>390</v>
@@ -8908,10 +8949,10 @@
         <v>18</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="D126" s="1">
         <v>2934</v>
@@ -8922,10 +8963,10 @@
         <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D127" s="1">
         <v>4809</v>
@@ -8936,10 +8977,10 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D128" s="1">
         <v>400</v>
@@ -8950,10 +8991,10 @@
         <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D129" s="1">
         <v>1000</v>
@@ -8964,10 +9005,10 @@
         <v>22</v>
       </c>
       <c r="B130" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D130" s="1">
         <v>500</v>
@@ -8978,10 +9019,10 @@
         <v>23</v>
       </c>
       <c r="B131" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D131" s="1">
         <v>3000</v>
@@ -8992,10 +9033,10 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D132" s="1">
         <v>240</v>
@@ -9006,10 +9047,10 @@
         <v>25</v>
       </c>
       <c r="B133" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D133" s="1">
         <v>1000</v>
@@ -9020,10 +9061,10 @@
         <v>26</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D134" s="1">
         <v>600</v>
@@ -9034,10 +9075,10 @@
         <v>27</v>
       </c>
       <c r="B135" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D135" s="1">
         <v>430</v>
@@ -9048,10 +9089,10 @@
         <v>28</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D136" s="1">
         <v>430</v>
@@ -9062,10 +9103,10 @@
         <v>29</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D137" s="1">
         <v>650</v>
@@ -9076,10 +9117,10 @@
         <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D138" s="1">
         <v>1200</v>
@@ -9090,10 +9131,10 @@
         <v>31</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D139" s="1">
         <v>1500</v>
@@ -9104,10 +9145,10 @@
         <v>32</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D140" s="1">
         <v>950</v>
@@ -9118,10 +9159,10 @@
         <v>33</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C141" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="D141" s="1">
         <v>6796</v>
@@ -9132,10 +9173,10 @@
         <v>34</v>
       </c>
       <c r="B142" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C142" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="D142" s="1">
         <v>3500</v>
@@ -9146,10 +9187,10 @@
         <v>35</v>
       </c>
       <c r="B143" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D143" s="1">
         <v>850</v>
@@ -9160,10 +9201,10 @@
         <v>36</v>
       </c>
       <c r="B144" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D144" s="1">
         <v>2000</v>
@@ -9174,10 +9215,10 @@
         <v>37</v>
       </c>
       <c r="B145" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D145" s="1">
         <v>400</v>
@@ -9188,10 +9229,10 @@
         <v>38</v>
       </c>
       <c r="B146" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D146" s="1">
         <v>250</v>
@@ -9202,10 +9243,10 @@
         <v>39</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D147" s="1">
         <v>200</v>
@@ -9216,10 +9257,10 @@
         <v>40</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D148" s="1">
         <v>8700</v>
@@ -9230,10 +9271,10 @@
         <v>41</v>
       </c>
       <c r="B149" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C149" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D149" s="1">
         <v>220</v>
@@ -9244,10 +9285,10 @@
         <v>42</v>
       </c>
       <c r="B150" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D150" s="1">
         <v>310</v>
@@ -9258,10 +9299,10 @@
         <v>43</v>
       </c>
       <c r="B151" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C151" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="D151" s="1">
         <v>16000</v>
@@ -9272,10 +9313,10 @@
         <v>44</v>
       </c>
       <c r="B152" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D152" s="1">
         <v>400</v>
@@ -9286,10 +9327,10 @@
         <v>45</v>
       </c>
       <c r="B153" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C153" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="D153" s="1">
         <v>400</v>
@@ -9300,10 +9341,10 @@
         <v>46</v>
       </c>
       <c r="B154" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D154" s="1">
         <v>1500</v>
@@ -9314,10 +9355,10 @@
         <v>47</v>
       </c>
       <c r="B155" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D155" s="1">
         <v>288</v>
@@ -9328,10 +9369,10 @@
         <v>48</v>
       </c>
       <c r="B156" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C156" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D156" s="1">
         <v>270</v>
@@ -9342,10 +9383,10 @@
         <v>49</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D157" s="1">
         <v>9600</v>
@@ -9356,10 +9397,10 @@
         <v>50</v>
       </c>
       <c r="B158" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C158" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D158" s="1">
         <v>1500</v>
@@ -9370,10 +9411,10 @@
         <v>51</v>
       </c>
       <c r="B159" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C159" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D159" s="1">
         <v>1150</v>
@@ -9384,10 +9425,10 @@
         <v>52</v>
       </c>
       <c r="B160" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C160" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D160" s="1">
         <v>1300</v>
@@ -9398,10 +9439,10 @@
         <v>53</v>
       </c>
       <c r="B161" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C161" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D161" s="1">
         <v>2000</v>
@@ -9412,10 +9453,10 @@
         <v>54</v>
       </c>
       <c r="B162" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C162" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="D162" s="1">
         <v>3550</v>
@@ -9426,10 +9467,10 @@
         <v>55</v>
       </c>
       <c r="B163" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C163" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D163" s="1">
         <v>241</v>
@@ -9440,10 +9481,10 @@
         <v>56</v>
       </c>
       <c r="B164" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C164" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D164" s="1">
         <v>800</v>
@@ -9454,10 +9495,10 @@
         <v>57</v>
       </c>
       <c r="B165" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C165" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D165" s="1">
         <v>1690</v>
@@ -9468,10 +9509,10 @@
         <v>58</v>
       </c>
       <c r="B166" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D166" s="1">
         <v>230</v>
@@ -9482,10 +9523,10 @@
         <v>59</v>
       </c>
       <c r="B167" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C167" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D167" s="1">
         <v>890</v>
@@ -9496,10 +9537,10 @@
         <v>60</v>
       </c>
       <c r="B168" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C168" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D168" s="1">
         <v>700</v>
@@ -9510,10 +9551,10 @@
         <v>61</v>
       </c>
       <c r="B169" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C169" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D169" s="1">
         <v>355</v>
@@ -9524,10 +9565,10 @@
         <v>62</v>
       </c>
       <c r="B170" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D170" s="1">
         <v>8260</v>
@@ -9538,10 +9579,10 @@
         <v>63</v>
       </c>
       <c r="B171" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C171" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D171" s="1">
         <v>5000</v>
@@ -9552,10 +9593,10 @@
         <v>64</v>
       </c>
       <c r="B172" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C172" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="D172" s="1">
         <v>19000</v>
@@ -9566,10 +9607,10 @@
         <v>65</v>
       </c>
       <c r="B173" t="s">
-        <v>177</v>
+        <v>280</v>
       </c>
       <c r="C173" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D173" s="1">
         <v>500</v>
@@ -9580,10 +9621,10 @@
         <v>66</v>
       </c>
       <c r="B174" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C174" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D174" s="1">
         <v>1200</v>
@@ -9594,10 +9635,10 @@
         <v>67</v>
       </c>
       <c r="B175" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D175" s="1">
         <v>500</v>
@@ -9608,7 +9649,10 @@
         <v>68</v>
       </c>
       <c r="B176" t="s">
-        <v>179</v>
+        <v>168</v>
+      </c>
+      <c r="C176" t="s">
+        <v>272</v>
       </c>
       <c r="D176" s="1"/>
     </row>
@@ -9617,10 +9661,10 @@
         <v>69</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C177" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D177" s="1">
         <v>430</v>
@@ -9631,10 +9675,10 @@
         <v>70</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C178" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D178" s="1">
         <v>1940</v>
@@ -9645,10 +9689,10 @@
         <v>71</v>
       </c>
       <c r="B179" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D179" s="1">
         <v>29500</v>
@@ -9659,10 +9703,10 @@
         <v>72</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D180" s="1">
         <v>4400</v>
@@ -9673,10 +9717,10 @@
         <v>73</v>
       </c>
       <c r="B181" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="D181" s="1">
         <v>6150</v>
@@ -9687,10 +9731,10 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C182" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D182" s="1">
         <v>260</v>
@@ -9701,10 +9745,10 @@
         <v>75</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D183" s="1">
         <v>5000</v>
@@ -9715,10 +9759,10 @@
         <v>76</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C184" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D184" s="1">
         <v>15500</v>
@@ -9729,10 +9773,10 @@
         <v>77</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D185" s="1">
         <v>760</v>
@@ -9743,10 +9787,10 @@
         <v>78</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C186" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D186" s="1">
         <v>350</v>
@@ -9757,10 +9801,10 @@
         <v>79</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C187" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D187" s="1">
         <v>2000</v>
@@ -9771,10 +9815,10 @@
         <v>80</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D188" s="1">
         <v>6000</v>
@@ -9785,10 +9829,10 @@
         <v>81</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C189" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D189" s="1">
         <v>1000</v>
@@ -9799,10 +9843,10 @@
         <v>82</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C190" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D190" s="1">
         <v>550</v>
@@ -9816,7 +9860,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D193" s="1"/>
     </row>
@@ -9836,10 +9880,10 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D195" s="1">
         <v>680</v>
@@ -9850,10 +9894,10 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C196" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="D196" s="1">
         <v>2378</v>
@@ -9864,10 +9908,10 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C197" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D197" s="1">
         <v>1150</v>
@@ -9878,10 +9922,10 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C198" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D198" s="1">
         <v>2000</v>
@@ -9892,10 +9936,10 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C199" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D199" s="1">
         <v>500</v>
@@ -9906,10 +9950,10 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C200" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D200" s="1">
         <v>250</v>
@@ -9920,10 +9964,10 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C201" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D201" s="1">
         <v>230</v>
@@ -9934,10 +9978,10 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C202" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D202" s="1">
         <v>660</v>
@@ -9948,10 +9992,10 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C203" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D203" s="1">
         <v>1900</v>
@@ -9962,10 +10006,10 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C204" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D204" s="1">
         <v>2700</v>
@@ -9976,10 +10020,10 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C205" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D205" s="1">
         <v>600</v>
@@ -9990,10 +10034,10 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C206" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D206" s="1">
         <v>2700</v>
@@ -10004,10 +10048,10 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C207" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D207" s="1">
         <v>780</v>
@@ -10018,10 +10062,10 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C208" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D208" s="1">
         <v>3250</v>
@@ -10032,10 +10076,10 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C209" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="D209" s="1">
         <v>1570</v>
@@ -10046,10 +10090,10 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C210" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D210" s="1">
         <v>500</v>
@@ -10060,10 +10104,10 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C211" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D211" s="1">
         <v>580</v>
@@ -10074,10 +10118,10 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C212" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D212" s="1">
         <v>1100</v>
@@ -10088,10 +10132,10 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C213" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D213" s="1">
         <v>210</v>
@@ -10102,10 +10146,10 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C214" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D214" s="1">
         <v>300</v>
@@ -10116,10 +10160,10 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C215" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D215" s="1">
         <v>580</v>
@@ -10130,10 +10174,10 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C216" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D216" s="1">
         <v>1550</v>
@@ -10144,10 +10188,10 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C217" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D217" s="1">
         <v>250</v>
@@ -10158,10 +10202,10 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C218" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="D218" s="1">
         <v>2600</v>
@@ -10172,10 +10216,10 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C219" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D219" s="1">
         <v>41100</v>
@@ -10186,10 +10230,10 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C220" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D220" s="1">
         <v>940</v>
@@ -10200,10 +10244,10 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C221" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="D221" s="1">
         <v>20500</v>
@@ -10214,10 +10258,10 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C222" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D222" s="1">
         <v>800</v>
@@ -10228,10 +10272,10 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C223" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D223" s="1">
         <v>950</v>
@@ -10242,10 +10286,10 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C224" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D224" s="1">
         <v>280</v>
@@ -10256,10 +10300,10 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C225" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D225" s="1">
         <v>250</v>
@@ -10270,10 +10314,10 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C226" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D226" s="1">
         <v>900</v>
@@ -10284,10 +10328,10 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C227" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D227" s="1">
         <v>350</v>
@@ -10298,7 +10342,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D229" s="1"/>
     </row>
@@ -10318,10 +10362,10 @@
         <v>1</v>
       </c>
       <c r="B231" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C231" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D231" s="1">
         <v>700</v>
@@ -10332,10 +10376,10 @@
         <v>2</v>
       </c>
       <c r="B232" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C232" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D232" s="1">
         <v>430</v>
@@ -10346,10 +10390,10 @@
         <v>3</v>
       </c>
       <c r="B233" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C233" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D233" s="1">
         <v>650</v>
@@ -10360,10 +10404,10 @@
         <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C234" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D234" s="1">
         <v>4600</v>
@@ -10374,10 +10418,10 @@
         <v>5</v>
       </c>
       <c r="B235" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C235" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="D235" s="1">
         <v>2000</v>
@@ -10388,10 +10432,10 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C236" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D236" s="1">
         <v>1050</v>
@@ -10402,10 +10446,10 @@
         <v>7</v>
       </c>
       <c r="B237" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C237" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D237" s="1">
         <v>2800</v>
@@ -10416,10 +10460,10 @@
         <v>8</v>
       </c>
       <c r="B238" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C238" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D238" s="1">
         <v>600</v>
@@ -10430,10 +10474,10 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C239" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D239" s="1">
         <v>40000</v>
@@ -10444,10 +10488,10 @@
         <v>10</v>
       </c>
       <c r="B240" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C240" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D240" s="1">
         <v>4500</v>
@@ -10458,10 +10502,10 @@
         <v>11</v>
       </c>
       <c r="B241" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C241" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D241" s="1">
         <v>1150</v>
@@ -10472,10 +10516,10 @@
         <v>12</v>
       </c>
       <c r="B242" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C242" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D242" s="1">
         <v>1500</v>
@@ -10486,10 +10530,10 @@
         <v>13</v>
       </c>
       <c r="B243" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C243" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D243" s="1">
         <v>375</v>
@@ -10500,10 +10544,10 @@
         <v>14</v>
       </c>
       <c r="B244" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C244" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D244" s="1">
         <v>410</v>
@@ -10514,10 +10558,10 @@
         <v>15</v>
       </c>
       <c r="B245" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C245" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D245" s="1">
         <v>355</v>
@@ -10528,10 +10572,10 @@
         <v>16</v>
       </c>
       <c r="B246" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C246" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D246" s="1">
         <v>6500</v>
@@ -10542,10 +10586,10 @@
         <v>17</v>
       </c>
       <c r="B247" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C247" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="D247" s="1">
         <v>1200</v>
@@ -10556,10 +10600,10 @@
         <v>18</v>
       </c>
       <c r="B248" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C248" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D248" s="1">
         <v>600</v>
@@ -10570,10 +10614,10 @@
         <v>19</v>
       </c>
       <c r="B249" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C249" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D249" s="1">
         <v>200</v>
@@ -10584,10 +10628,10 @@
         <v>20</v>
       </c>
       <c r="B250" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C250" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="D250" s="1">
         <v>650</v>
@@ -10598,10 +10642,10 @@
         <v>21</v>
       </c>
       <c r="B251" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C251" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D251" s="1">
         <v>350</v>
@@ -10612,10 +10656,10 @@
         <v>22</v>
       </c>
       <c r="B252" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C252" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D252" s="1">
         <v>100</v>
@@ -10634,7 +10678,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D256" s="1"/>
     </row>
@@ -10654,10 +10698,10 @@
         <v>1</v>
       </c>
       <c r="B258" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C258" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D258" s="1">
         <v>630</v>
@@ -10668,10 +10712,10 @@
         <v>2</v>
       </c>
       <c r="B259" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C259" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="D259" s="1">
         <v>1408</v>
@@ -10682,10 +10726,10 @@
         <v>3</v>
       </c>
       <c r="B260" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C260" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D260" s="1">
         <v>3500</v>
@@ -10696,10 +10740,10 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C261" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D261" s="1">
         <v>310</v>
@@ -10710,10 +10754,10 @@
         <v>5</v>
       </c>
       <c r="B262" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C262" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D262" s="1">
         <v>800</v>
@@ -10724,10 +10768,10 @@
         <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C263" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="D263" s="1">
         <v>900</v>
@@ -10738,10 +10782,10 @@
         <v>7</v>
       </c>
       <c r="B264" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C264" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D264" s="1">
         <v>1500</v>
@@ -10752,10 +10796,10 @@
         <v>8</v>
       </c>
       <c r="B265" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C265" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="D265" s="1">
         <v>430</v>
